--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\RiskML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{65D76672-AC88-432E-BD7F-3EA44AE3BBD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C764D664-6F1D-44CF-99DB-BD0E6372831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{63164F8D-B37A-4AC2-BF66-647E0DBB8873}"/>
   </bookViews>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
-  <si>
-    <t>Ref.</t>
-  </si>
-  <si>
-    <t>[20]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Sl.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,61 +94,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Freire</t>
+    <t>L mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>et</t>
+    <t>School</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>al.</t>
+    <t>Population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[23]</t>
+    <t>Water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mok</t>
-  </si>
-  <si>
-    <t>[45]</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>[34]</t>
-  </si>
-  <si>
-    <t>Chen</t>
-  </si>
-  <si>
-    <t>[17]</t>
-  </si>
-  <si>
-    <t>Shuai</t>
-  </si>
-  <si>
-    <t>[51]</t>
-  </si>
-  <si>
-    <t>Mannucci</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>[43],</t>
-  </si>
-  <si>
-    <t>Cronin</t>
-  </si>
-  <si>
-    <t>Pick</t>
-  </si>
-  <si>
-    <t>L mm</t>
+    <t>Result</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,59 +478,68 @@
   <dimension ref="A1:S93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M94" sqref="M94"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>0</v>
+      <c r="S1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -582,58 +547,59 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.75221736697255004</v>
+      </c>
+      <c r="C2">
+        <v>0.98020802053790435</v>
+      </c>
+      <c r="D2">
+        <v>0.6147203019064531</v>
+      </c>
+      <c r="E2">
         <v>459</v>
       </c>
-      <c r="C2">
+      <c r="F2">
         <v>8.1</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>40</v>
       </c>
-      <c r="E2">
+      <c r="H2">
         <v>5.4</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>601</v>
       </c>
-      <c r="G2">
+      <c r="J2">
         <v>684</v>
       </c>
-      <c r="H2">
+      <c r="K2">
         <v>23</v>
       </c>
-      <c r="I2">
+      <c r="L2">
         <v>20.2</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>20.6</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>21.9</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>20.6</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>15</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>17</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>17</v>
       </c>
-      <c r="P2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>19</v>
+      <c r="S2">
+        <f>R2*B2+R2*C2+R2*D2</f>
+        <v>39.90147672008743</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -641,46 +607,59 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.44313617126132143</v>
+      </c>
+      <c r="C3">
+        <v>0.10817279256079082</v>
+      </c>
+      <c r="D3">
+        <v>0.86092952242404297</v>
+      </c>
+      <c r="E3">
         <v>459</v>
       </c>
-      <c r="C3">
+      <c r="F3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="H3">
         <v>3.8</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>589</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>731</v>
       </c>
-      <c r="H3">
+      <c r="K3">
         <v>24</v>
       </c>
-      <c r="I3">
+      <c r="L3">
         <v>19.5</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>21.3</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>24.6</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>23.3</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>16.399999999999999</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>17.600000000000001</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>16.399999999999999</v>
+      </c>
+      <c r="S3">
+        <f t="shared" ref="S3:S68" si="0">R3*B3+R3*C3+R3*D3</f>
+        <v>23.160711174436944</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -688,46 +667,59 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0.56736887335648123</v>
+      </c>
+      <c r="C4">
+        <v>0.46156641279462951</v>
+      </c>
+      <c r="D4">
+        <v>0.89393955713059026</v>
+      </c>
+      <c r="E4">
         <v>324</v>
       </c>
-      <c r="C4">
+      <c r="F4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>256</v>
       </c>
-      <c r="E4">
+      <c r="H4">
         <v>7.1</v>
       </c>
-      <c r="F4">
+      <c r="I4">
         <v>452</v>
       </c>
-      <c r="G4">
+      <c r="J4">
         <v>542</v>
       </c>
-      <c r="H4">
+      <c r="K4">
         <v>14</v>
       </c>
-      <c r="I4">
+      <c r="L4">
         <v>8.4</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>14.3</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>12.7</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>12.5</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>8.9</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>21.9</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="0"/>
+        <v>42.110959067869246</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -735,46 +727,59 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0.84081323405442887</v>
+      </c>
+      <c r="C5">
+        <v>0.22146558715913534</v>
+      </c>
+      <c r="D5">
+        <v>0.43288301290870201</v>
+      </c>
+      <c r="E5">
         <v>324</v>
       </c>
-      <c r="C5">
+      <c r="F5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D5">
+      <c r="G5">
         <v>306</v>
       </c>
-      <c r="E5">
+      <c r="H5">
         <v>6.8</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>452</v>
       </c>
-      <c r="G5">
+      <c r="J5">
         <v>542</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>14</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>9</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>14.7</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>12.8</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>12.2</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>8.5</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>7.7</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>21.7</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="0"/>
+        <v>32.445011800453173</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
@@ -782,46 +787,59 @@
         <v>5</v>
       </c>
       <c r="B6">
+        <v>0.11343896656980434</v>
+      </c>
+      <c r="C6">
+        <v>0.29475095368460091</v>
+      </c>
+      <c r="D6">
+        <v>0.71582722743212157</v>
+      </c>
+      <c r="E6">
         <v>324</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>350</v>
       </c>
-      <c r="E6">
+      <c r="H6">
         <v>6.9</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>452</v>
       </c>
-      <c r="G6">
+      <c r="J6">
         <v>542</v>
       </c>
-      <c r="H6">
+      <c r="K6">
         <v>14</v>
       </c>
-      <c r="I6">
+      <c r="L6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>14.2</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>12</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>11.1</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>8</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>6.2</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>21.7</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="0"/>
+        <v>24.391172104797633</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
@@ -829,46 +847,59 @@
         <v>6</v>
       </c>
       <c r="B7">
+        <v>0.49103815099652526</v>
+      </c>
+      <c r="C7">
+        <v>0.12454285592376257</v>
+      </c>
+      <c r="D7">
+        <v>0.13761611661141981</v>
+      </c>
+      <c r="E7">
         <v>324</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>395</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>6.9</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>452</v>
       </c>
-      <c r="G7">
+      <c r="J7">
         <v>542</v>
       </c>
-      <c r="H7">
+      <c r="K7">
         <v>13</v>
       </c>
-      <c r="I7">
+      <c r="L7">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>14.1</v>
       </c>
-      <c r="K7">
+      <c r="N7">
         <v>11.7</v>
       </c>
-      <c r="L7">
+      <c r="O7">
         <v>10.6</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>7.9</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>5</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>21.7</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>16.344377580638056</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
@@ -876,46 +907,59 @@
         <v>7</v>
       </c>
       <c r="B8">
+        <v>0.50990941549498303</v>
+      </c>
+      <c r="C8">
+        <v>0.91616322003970785</v>
+      </c>
+      <c r="D8">
+        <v>0.32000585790816827</v>
+      </c>
+      <c r="E8">
         <v>324</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>9.9</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>433</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>7.3</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>452</v>
       </c>
-      <c r="G8">
+      <c r="J8">
         <v>542</v>
       </c>
-      <c r="H8">
+      <c r="K8">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>8.1</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>13.5</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>10.8</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>9.6</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>7.3</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>3.6</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>22.1</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>38.588334705087192</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
@@ -923,46 +967,59 @@
         <v>8</v>
       </c>
       <c r="B9">
+        <v>0.38570973661217667</v>
+      </c>
+      <c r="C9">
+        <v>0.73671393421821751</v>
+      </c>
+      <c r="D9">
+        <v>4.7150942401952167E-2</v>
+      </c>
+      <c r="E9">
         <v>324</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>467</v>
       </c>
-      <c r="E9">
+      <c r="H9">
         <v>7</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>452</v>
       </c>
-      <c r="G9">
+      <c r="J9">
         <v>542</v>
       </c>
-      <c r="H9">
+      <c r="K9">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>8.4</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>13.6</v>
       </c>
-      <c r="K9">
+      <c r="N9">
         <v>11</v>
       </c>
-      <c r="L9">
+      <c r="O9">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>7.5</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>3.1</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>21.7</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>25.379769107141914</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
@@ -970,46 +1027,59 @@
         <v>9</v>
       </c>
       <c r="B10">
+        <v>0.74775990405328607</v>
+      </c>
+      <c r="C10">
+        <v>0.47989455263262748</v>
+      </c>
+      <c r="D10">
+        <v>0.77486190123650467</v>
+      </c>
+      <c r="E10">
         <v>324</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>489</v>
       </c>
-      <c r="E10">
+      <c r="H10">
         <v>7</v>
       </c>
-      <c r="F10">
+      <c r="I10">
         <v>452</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>542</v>
       </c>
-      <c r="H10">
+      <c r="K10">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>13.9</v>
       </c>
-      <c r="K10">
+      <c r="N10">
         <v>11.3</v>
       </c>
-      <c r="L10">
+      <c r="O10">
         <v>10</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>7.7</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>2.8</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>21.9</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>43.855108238500961</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
@@ -1017,46 +1087,59 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <v>0.60475164107508039</v>
+      </c>
+      <c r="C11">
+        <v>0.37437532823771014</v>
+      </c>
+      <c r="D11">
+        <v>0.16108782002154021</v>
+      </c>
+      <c r="E11">
         <v>324</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D11">
+      <c r="G11">
         <v>500</v>
       </c>
-      <c r="E11">
+      <c r="H11">
         <v>7</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>452</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>542</v>
       </c>
-      <c r="H11">
+      <c r="K11">
         <v>12</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>13.8</v>
       </c>
-      <c r="K11">
+      <c r="N11">
         <v>11.3</v>
       </c>
-      <c r="L11">
+      <c r="O11">
         <v>10</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>7.7</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>2.5</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>21.9</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="0"/>
+        <v>24.970703886421841</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
@@ -1064,46 +1147,59 @@
         <v>11</v>
       </c>
       <c r="B12">
+        <v>0.35664134348612175</v>
+      </c>
+      <c r="C12">
+        <v>2.2834209394406391E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.14990500374047699</v>
+      </c>
+      <c r="E12">
         <v>324</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>528</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>7.1</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>452</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>542</v>
       </c>
-      <c r="H12">
+      <c r="K12">
         <v>11</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>8.1</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>13.1</v>
       </c>
-      <c r="K12">
+      <c r="N12">
         <v>10.4</v>
       </c>
-      <c r="L12">
+      <c r="O12">
         <v>9.1</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>7.1</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>1.5</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>21.7</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="0"/>
+        <v>11.487558078675811</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
@@ -1111,46 +1207,59 @@
         <v>12</v>
       </c>
       <c r="B13">
+        <v>2.433475784165684E-2</v>
+      </c>
+      <c r="C13">
+        <v>0.32532112859460838</v>
+      </c>
+      <c r="D13">
+        <v>0.51926793659096726</v>
+      </c>
+      <c r="E13">
         <v>508</v>
       </c>
-      <c r="C13">
+      <c r="F13">
         <v>14.6</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>500</v>
       </c>
-      <c r="E13">
+      <c r="H13">
         <v>10.4</v>
       </c>
-      <c r="F13">
+      <c r="I13">
         <v>478</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>600</v>
       </c>
-      <c r="H13">
+      <c r="K13">
         <v>15</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>14.4</v>
       </c>
-      <c r="K13">
+      <c r="N13">
         <v>12.9</v>
       </c>
-      <c r="L13">
+      <c r="O13">
         <v>12.1</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>7.2</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>22</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="0"/>
+        <v>19.116324106599116</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
@@ -1158,46 +1267,59 @@
         <v>13</v>
       </c>
       <c r="B14">
+        <v>0.14405601973310023</v>
+      </c>
+      <c r="C14">
+        <v>0.94494954690409028</v>
+      </c>
+      <c r="D14">
+        <v>0.60032285520249895</v>
+      </c>
+      <c r="E14">
         <v>508</v>
       </c>
-      <c r="C14">
+      <c r="F14">
         <v>14.3</v>
       </c>
-      <c r="D14">
+      <c r="G14">
         <v>500</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>10.3</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>478</v>
       </c>
-      <c r="G14">
+      <c r="J14">
         <v>600</v>
       </c>
-      <c r="H14">
+      <c r="K14">
         <v>13</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>8.4</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>13.9</v>
       </c>
-      <c r="K14">
+      <c r="N14">
         <v>12.3</v>
       </c>
-      <c r="L14">
+      <c r="O14">
         <v>11.5</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>7.8</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>6.9</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>21.5</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="0"/>
+        <v>36.320561069553321</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
@@ -1205,46 +1327,59 @@
         <v>14</v>
       </c>
       <c r="B15">
+        <v>0.17698981565165151</v>
+      </c>
+      <c r="C15">
+        <v>0.58762842164381479</v>
+      </c>
+      <c r="D15">
+        <v>0.13653491286443109</v>
+      </c>
+      <c r="E15">
         <v>508</v>
       </c>
-      <c r="C15">
+      <c r="F15">
         <v>14.8</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>500</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>478</v>
       </c>
-      <c r="G15">
+      <c r="J15">
         <v>600</v>
       </c>
-      <c r="H15">
+      <c r="K15">
         <v>16</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>10.7</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>16.2</v>
       </c>
-      <c r="K15">
+      <c r="N15">
         <v>15.4</v>
       </c>
-      <c r="L15">
+      <c r="O15">
         <v>14.6</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>9.9</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>8.4</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>22.3</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="0"/>
+        <v>20.09571524856571</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
@@ -1252,58 +1387,59 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>0.66882796247307996</v>
+      </c>
+      <c r="C16">
+        <v>0.43041494624968613</v>
+      </c>
+      <c r="D16">
+        <v>0.732030185647501</v>
+      </c>
+      <c r="E16">
         <v>508</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>6.6</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>381</v>
       </c>
-      <c r="E16">
+      <c r="H16">
         <v>2.6</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>540</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>610</v>
       </c>
-      <c r="H16">
+      <c r="K16">
         <v>11</v>
       </c>
-      <c r="I16">
+      <c r="L16">
         <v>9.4</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>11.3</v>
       </c>
-      <c r="K16">
+      <c r="N16">
         <v>10.9</v>
       </c>
-      <c r="L16">
+      <c r="O16">
         <v>10.6</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>8.1</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>11.2</v>
       </c>
-      <c r="P16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" t="s">
-        <v>18</v>
-      </c>
-      <c r="S16" t="s">
-        <v>21</v>
+      <c r="S16">
+        <f>R16*B16+R16*C16+R16*D16</f>
+        <v>20.510258656946988</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -1311,46 +1447,59 @@
         <v>16</v>
       </c>
       <c r="B17">
+        <v>0.37750022504368763</v>
+      </c>
+      <c r="C17">
+        <v>0.72005120992021987</v>
+      </c>
+      <c r="D17">
+        <v>0.66977907688122595</v>
+      </c>
+      <c r="E17">
         <v>508</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>6.4</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>900</v>
       </c>
-      <c r="E17">
+      <c r="H17">
         <v>3.4</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>540</v>
       </c>
-      <c r="G17">
+      <c r="J17">
         <v>610</v>
       </c>
-      <c r="H17">
+      <c r="K17">
         <v>8</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>7.1</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K17">
+      <c r="N17">
         <v>7.8</v>
       </c>
-      <c r="L17">
+      <c r="O17">
         <v>7.3</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>6</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>2.8</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>10.9</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>19.263902579111956</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -1358,46 +1507,59 @@
         <v>17</v>
       </c>
       <c r="B18">
+        <v>0.34652724672024404</v>
+      </c>
+      <c r="C18">
+        <v>0.95985273079747635</v>
+      </c>
+      <c r="D18">
+        <v>0.36862324207889474</v>
+      </c>
+      <c r="E18">
         <v>508</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>6.4</v>
       </c>
-      <c r="D18">
+      <c r="G18">
         <v>900</v>
       </c>
-      <c r="E18">
+      <c r="H18">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>540</v>
       </c>
-      <c r="G18">
+      <c r="J18">
         <v>610</v>
       </c>
-      <c r="H18">
+      <c r="K18">
         <v>12</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>9.9</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>11.1</v>
       </c>
-      <c r="K18">
+      <c r="N18">
         <v>10.6</v>
       </c>
-      <c r="L18">
+      <c r="O18">
         <v>10.199999999999999</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>5.7</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>10.9</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>18.257535093603106</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -1405,46 +1567,59 @@
         <v>18</v>
       </c>
       <c r="B19">
+        <v>0.67376537031236938</v>
+      </c>
+      <c r="C19">
+        <v>0.69163597611003502</v>
+      </c>
+      <c r="D19">
+        <v>5.4919279111740327E-2</v>
+      </c>
+      <c r="E19">
         <v>508</v>
       </c>
-      <c r="C19">
+      <c r="F19">
         <v>6.4</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>1000</v>
       </c>
-      <c r="E19">
+      <c r="H19">
         <v>3.2</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>540</v>
       </c>
-      <c r="G19">
+      <c r="J19">
         <v>610</v>
       </c>
-      <c r="H19">
+      <c r="K19">
         <v>8</v>
       </c>
-      <c r="I19">
+      <c r="L19">
         <v>7.6</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>9.1</v>
       </c>
-      <c r="K19">
+      <c r="N19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L19">
+      <c r="O19">
         <v>7.7</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>6.3</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>2.8</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>10.9</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>15.481494818322178</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -1452,46 +1627,59 @@
         <v>19</v>
       </c>
       <c r="B20">
+        <v>0.54753042128556118</v>
+      </c>
+      <c r="C20">
+        <v>0.89418388142857108</v>
+      </c>
+      <c r="D20">
+        <v>0.98692314231769962</v>
+      </c>
+      <c r="E20">
         <v>508</v>
       </c>
-      <c r="C20">
+      <c r="F20">
         <v>6.7</v>
       </c>
-      <c r="D20">
+      <c r="G20">
         <v>1016</v>
       </c>
-      <c r="E20">
+      <c r="H20">
         <v>2.7</v>
       </c>
-      <c r="F20">
+      <c r="I20">
         <v>540</v>
       </c>
-      <c r="G20">
+      <c r="J20">
         <v>610</v>
       </c>
-      <c r="H20">
+      <c r="K20">
         <v>12</v>
       </c>
-      <c r="I20">
+      <c r="L20">
         <v>9.4</v>
       </c>
-      <c r="J20">
+      <c r="M20">
         <v>10.8</v>
       </c>
-      <c r="K20">
+      <c r="N20">
         <v>10.199999999999999</v>
       </c>
-      <c r="L20">
+      <c r="O20">
         <v>9.6</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>7.9</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>4.4000000000000004</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>11.4</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>27.686466873362885</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -1499,58 +1687,59 @@
         <v>20</v>
       </c>
       <c r="B21">
+        <v>0.93105532219852527</v>
+      </c>
+      <c r="C21">
+        <v>0.7343973758152641</v>
+      </c>
+      <c r="D21">
+        <v>0.43302223882332203</v>
+      </c>
+      <c r="E21">
         <v>762</v>
       </c>
-      <c r="C21">
+      <c r="F21">
         <v>17.5</v>
       </c>
-      <c r="D21">
+      <c r="G21">
         <v>50</v>
       </c>
-      <c r="E21">
+      <c r="H21">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F21">
+      <c r="I21">
         <v>495</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>565</v>
       </c>
-      <c r="H21">
+      <c r="K21">
         <v>28</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>23.5</v>
       </c>
-      <c r="J21">
+      <c r="M21">
         <v>17</v>
       </c>
-      <c r="K21">
+      <c r="N21">
         <v>25.8</v>
       </c>
-      <c r="L21">
+      <c r="O21">
         <v>24.3</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>19.100000000000001</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>19.899999999999999</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>18.2</v>
       </c>
-      <c r="P21" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R21" t="s">
-        <v>18</v>
-      </c>
-      <c r="S21" t="s">
-        <v>23</v>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>38.192243850435425</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -1558,46 +1747,59 @@
         <v>21</v>
       </c>
       <c r="B22">
+        <v>0.48450983025307837</v>
+      </c>
+      <c r="C22">
+        <v>0.47816821733719628</v>
+      </c>
+      <c r="D22">
+        <v>0.26299066342257993</v>
+      </c>
+      <c r="E22">
         <v>762</v>
       </c>
-      <c r="C22">
+      <c r="F22">
         <v>17.5</v>
       </c>
-      <c r="D22">
+      <c r="G22">
         <v>100</v>
       </c>
-      <c r="E22">
+      <c r="H22">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F22">
+      <c r="I22">
         <v>495</v>
       </c>
-      <c r="G22">
+      <c r="J22">
         <v>565</v>
       </c>
-      <c r="H22">
+      <c r="K22">
         <v>24</v>
       </c>
-      <c r="I22">
+      <c r="L22">
         <v>19.899999999999999</v>
       </c>
-      <c r="J22">
+      <c r="M22">
         <v>17</v>
       </c>
-      <c r="K22">
+      <c r="N22">
         <v>24.1</v>
       </c>
-      <c r="L22">
+      <c r="O22">
         <v>22.8</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>16.899999999999999</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>18.2</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>18.2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>22.307170540433951</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -1605,46 +1807,59 @@
         <v>22</v>
       </c>
       <c r="B23">
+        <v>0.53063027104491611</v>
+      </c>
+      <c r="C23">
+        <v>0.81794338820235579</v>
+      </c>
+      <c r="D23">
+        <v>9.7427104288611011E-3</v>
+      </c>
+      <c r="E23">
         <v>762</v>
       </c>
-      <c r="C23">
+      <c r="F23">
         <v>17.5</v>
       </c>
-      <c r="D23">
+      <c r="G23">
         <v>200</v>
       </c>
-      <c r="E23">
+      <c r="H23">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F23">
+      <c r="I23">
         <v>495</v>
       </c>
-      <c r="G23">
+      <c r="J23">
         <v>565</v>
       </c>
-      <c r="H23">
+      <c r="K23">
         <v>22</v>
       </c>
-      <c r="I23">
+      <c r="L23">
         <v>13.6</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>17</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>20.7</v>
       </c>
-      <c r="L23">
+      <c r="O23">
         <v>20.5</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>14</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>16</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>18.2</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>24.721357928105622</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -1652,46 +1867,59 @@
         <v>23</v>
       </c>
       <c r="B24">
+        <v>0.79466334713361519</v>
+      </c>
+      <c r="C24">
+        <v>0.71788204408210243</v>
+      </c>
+      <c r="D24">
+        <v>0.23398359079938469</v>
+      </c>
+      <c r="E24">
         <v>762</v>
       </c>
-      <c r="C24">
+      <c r="F24">
         <v>17.5</v>
       </c>
-      <c r="D24">
+      <c r="G24">
         <v>300</v>
       </c>
-      <c r="E24">
+      <c r="H24">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F24">
+      <c r="I24">
         <v>495</v>
       </c>
-      <c r="G24">
+      <c r="J24">
         <v>565</v>
       </c>
-      <c r="H24">
+      <c r="K24">
         <v>20</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>9.9</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>16.899999999999999</v>
       </c>
-      <c r="K24">
+      <c r="N24">
         <v>18.5</v>
       </c>
-      <c r="L24">
+      <c r="O24">
         <v>18.7</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>12.7</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>14.4</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>18.2</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>31.786827472674862</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -1699,46 +1927,59 @@
         <v>24</v>
       </c>
       <c r="B25">
+        <v>0.41090076308661094</v>
+      </c>
+      <c r="C25">
+        <v>0.56860488927669317</v>
+      </c>
+      <c r="D25">
+        <v>0.80813172878719097</v>
+      </c>
+      <c r="E25">
         <v>762</v>
       </c>
-      <c r="C25">
+      <c r="F25">
         <v>17.5</v>
       </c>
-      <c r="D25">
+      <c r="G25">
         <v>600</v>
       </c>
-      <c r="E25">
+      <c r="H25">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F25">
+      <c r="I25">
         <v>495</v>
       </c>
-      <c r="G25">
+      <c r="J25">
         <v>565</v>
       </c>
-      <c r="H25">
+      <c r="K25">
         <v>17</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>12.5</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>16.5</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>15.8</v>
       </c>
-      <c r="L25">
+      <c r="O25">
         <v>15.4</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>11.4</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>10.9</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>18.2</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>32.535000336939007</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -1746,46 +1987,59 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <v>0.42122499676380099</v>
+      </c>
+      <c r="C26">
+        <v>0.64266455992489568</v>
+      </c>
+      <c r="D26">
+        <v>0.55338394718434658</v>
+      </c>
+      <c r="E26">
         <v>762</v>
       </c>
-      <c r="C26">
+      <c r="F26">
         <v>17.5</v>
       </c>
-      <c r="D26">
+      <c r="G26">
         <v>900</v>
       </c>
-      <c r="E26">
+      <c r="H26">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F26">
+      <c r="I26">
         <v>495</v>
       </c>
-      <c r="G26">
+      <c r="J26">
         <v>565</v>
       </c>
-      <c r="H26">
+      <c r="K26">
         <v>15</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>12.5</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>16.100000000000001</v>
       </c>
-      <c r="K26">
+      <c r="N26">
         <v>14.9</v>
       </c>
-      <c r="L26">
+      <c r="O26">
         <v>14</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>11</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>8.4</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>18.2</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>29.434377770489384</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -1793,46 +2047,59 @@
         <v>26</v>
       </c>
       <c r="B27">
+        <v>0.30200272145607654</v>
+      </c>
+      <c r="C27">
+        <v>0.15053043565077495</v>
+      </c>
+      <c r="D27">
+        <v>0.15889660553705198</v>
+      </c>
+      <c r="E27">
         <v>762</v>
       </c>
-      <c r="C27">
+      <c r="F27">
         <v>17.5</v>
       </c>
-      <c r="D27">
+      <c r="G27">
         <v>200</v>
       </c>
-      <c r="E27">
+      <c r="H27">
         <v>4.2</v>
       </c>
-      <c r="F27">
+      <c r="I27">
         <v>474</v>
       </c>
-      <c r="G27">
+      <c r="J27">
         <v>557</v>
       </c>
-      <c r="H27">
+      <c r="K27">
         <v>24</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>13</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>21.1</v>
       </c>
-      <c r="K27">
+      <c r="N27">
         <v>24.1</v>
       </c>
-      <c r="L27">
+      <c r="O27">
         <v>23.4</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>17.100000000000001</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>18.5</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>10.638877870003919</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
@@ -1840,46 +2107,59 @@
         <v>27</v>
       </c>
       <c r="B28">
+        <v>0.83874682968602421</v>
+      </c>
+      <c r="C28">
+        <v>0.83919009524336707</v>
+      </c>
+      <c r="D28">
+        <v>0.57904121074206472</v>
+      </c>
+      <c r="E28">
         <v>762</v>
       </c>
-      <c r="C28">
+      <c r="F28">
         <v>17.5</v>
       </c>
-      <c r="D28">
+      <c r="G28">
         <v>200</v>
       </c>
-      <c r="E28">
+      <c r="H28">
         <v>8.9</v>
       </c>
-      <c r="F28">
+      <c r="I28">
         <v>474</v>
       </c>
-      <c r="G28">
+      <c r="J28">
         <v>557</v>
       </c>
-      <c r="H28">
+      <c r="K28">
         <v>22</v>
       </c>
-      <c r="I28">
+      <c r="L28">
         <v>13</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>16.2</v>
       </c>
-      <c r="K28">
+      <c r="N28">
         <v>20.3</v>
       </c>
-      <c r="L28">
+      <c r="O28">
         <v>20.100000000000001</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>13.3</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>15.3</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>39.271419560683327</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
@@ -1887,46 +2167,59 @@
         <v>28</v>
       </c>
       <c r="B29">
+        <v>0.94177641462517703</v>
+      </c>
+      <c r="C29">
+        <v>0.9930356312516937</v>
+      </c>
+      <c r="D29">
+        <v>2.6882694618880598E-2</v>
+      </c>
+      <c r="E29">
         <v>762</v>
       </c>
-      <c r="C29">
+      <c r="F29">
         <v>17.5</v>
       </c>
-      <c r="D29">
+      <c r="G29">
         <v>200</v>
       </c>
-      <c r="E29">
+      <c r="H29">
         <v>13.1</v>
       </c>
-      <c r="F29">
+      <c r="I29">
         <v>474</v>
       </c>
-      <c r="G29">
+      <c r="J29">
         <v>557</v>
       </c>
-      <c r="H29">
+      <c r="K29">
         <v>17</v>
       </c>
-      <c r="I29">
+      <c r="L29">
         <v>13.1</v>
       </c>
-      <c r="J29">
+      <c r="M29">
         <v>11.2</v>
       </c>
-      <c r="K29">
+      <c r="N29">
         <v>14.3</v>
       </c>
-      <c r="L29">
+      <c r="O29">
         <v>15.3</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>12.9</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S29">
+        <f>R29*B29+R29*C29+R29*D29</f>
+        <v>34.133488484626064</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -1934,46 +2227,59 @@
         <v>29</v>
       </c>
       <c r="B30">
+        <v>0.70196089072780454</v>
+      </c>
+      <c r="C30">
+        <v>0.44624493626447503</v>
+      </c>
+      <c r="D30">
+        <v>0.74575173087015367</v>
+      </c>
+      <c r="E30">
         <v>762</v>
       </c>
-      <c r="C30">
+      <c r="F30">
         <v>17.5</v>
       </c>
-      <c r="D30">
+      <c r="G30">
         <v>100</v>
       </c>
-      <c r="E30">
+      <c r="H30">
         <v>8.4</v>
       </c>
-      <c r="F30">
+      <c r="I30">
         <v>474</v>
       </c>
-      <c r="G30">
+      <c r="J30">
         <v>557</v>
-      </c>
-      <c r="H30">
-        <v>24</v>
-      </c>
-      <c r="I30">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="J30">
-        <v>16.8</v>
       </c>
       <c r="K30">
         <v>24</v>
       </c>
       <c r="L30">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="M30">
+        <v>16.8</v>
+      </c>
+      <c r="N30">
+        <v>24</v>
+      </c>
+      <c r="O30">
         <v>22.7</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>16.399999999999999</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>17.7</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>32.954861506806338</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -1981,46 +2287,59 @@
         <v>30</v>
       </c>
       <c r="B31">
+        <v>0.6101518024798499</v>
+      </c>
+      <c r="C31">
+        <v>0.58818194180570127</v>
+      </c>
+      <c r="D31">
+        <v>0.35546641360832421</v>
+      </c>
+      <c r="E31">
         <v>762</v>
       </c>
-      <c r="C31">
+      <c r="F31">
         <v>17.5</v>
       </c>
-      <c r="D31">
+      <c r="G31">
         <v>300</v>
       </c>
-      <c r="E31">
+      <c r="H31">
         <v>8.5</v>
       </c>
-      <c r="F31">
+      <c r="I31">
         <v>474</v>
       </c>
-      <c r="G31">
+      <c r="J31">
         <v>557</v>
       </c>
-      <c r="H31">
+      <c r="K31">
         <v>20</v>
       </c>
-      <c r="I31">
+      <c r="L31">
         <v>9.5</v>
       </c>
-      <c r="J31">
+      <c r="M31">
         <v>16.600000000000001</v>
       </c>
-      <c r="K31">
+      <c r="N31">
         <v>18.600000000000001</v>
       </c>
-      <c r="L31">
+      <c r="O31">
         <v>18.7</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>12.5</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>14</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>27.036122747353428</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.3">
@@ -2028,46 +2347,59 @@
         <v>31</v>
       </c>
       <c r="B32">
+        <v>0.15995676032139838</v>
+      </c>
+      <c r="C32">
+        <v>1.93047199692572E-2</v>
+      </c>
+      <c r="D32">
+        <v>0.79863348037203241</v>
+      </c>
+      <c r="E32">
         <v>762</v>
       </c>
-      <c r="C32">
+      <c r="F32">
         <v>17.5</v>
       </c>
-      <c r="D32">
+      <c r="G32">
         <v>200</v>
       </c>
-      <c r="E32">
+      <c r="H32">
         <v>8.4</v>
       </c>
-      <c r="F32">
+      <c r="I32">
         <v>474</v>
       </c>
-      <c r="G32">
+      <c r="J32">
         <v>557</v>
       </c>
-      <c r="H32">
+      <c r="K32">
         <v>23</v>
       </c>
-      <c r="I32">
+      <c r="L32">
         <v>13</v>
       </c>
-      <c r="J32">
+      <c r="M32">
         <v>16.8</v>
       </c>
-      <c r="K32">
+      <c r="N32">
         <v>20.8</v>
       </c>
-      <c r="L32">
+      <c r="O32">
         <v>20.5</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>13.8</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>15.6</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>17.015372315530769</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.3">
@@ -2075,46 +2407,59 @@
         <v>32</v>
       </c>
       <c r="B33">
+        <v>0.23287862445999741</v>
+      </c>
+      <c r="C33">
+        <v>5.8916168102470134E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.12182289484725983</v>
+      </c>
+      <c r="E33">
         <v>762</v>
       </c>
-      <c r="C33">
+      <c r="F33">
         <v>17.5</v>
       </c>
-      <c r="D33">
+      <c r="G33">
         <v>200</v>
       </c>
-      <c r="E33">
+      <c r="H33">
         <v>9</v>
       </c>
-      <c r="F33">
+      <c r="I33">
         <v>474</v>
       </c>
-      <c r="G33">
+      <c r="J33">
         <v>557</v>
       </c>
-      <c r="H33">
+      <c r="K33">
         <v>23</v>
       </c>
-      <c r="I33">
+      <c r="L33">
         <v>13</v>
       </c>
-      <c r="J33">
+      <c r="M33">
         <v>16.100000000000001</v>
       </c>
-      <c r="K33">
+      <c r="N33">
         <v>20.2</v>
       </c>
-      <c r="L33">
+      <c r="O33">
         <v>20</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>13.2</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>15.2</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>17.399999999999999</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>7.1969477609292554</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.3">
@@ -2122,58 +2467,59 @@
         <v>33</v>
       </c>
       <c r="B34">
+        <v>0.89060802239397019</v>
+      </c>
+      <c r="C34">
+        <v>0.30816589032669539</v>
+      </c>
+      <c r="D34">
+        <v>0.88392987877734741</v>
+      </c>
+      <c r="E34">
         <v>426</v>
       </c>
-      <c r="C34">
+      <c r="F34">
         <v>7</v>
       </c>
-      <c r="D34">
+      <c r="G34">
         <v>160</v>
       </c>
-      <c r="E34">
+      <c r="H34">
         <v>2.7</v>
       </c>
-      <c r="F34">
+      <c r="I34">
         <v>240</v>
       </c>
-      <c r="G34">
+      <c r="J34">
         <v>390</v>
       </c>
-      <c r="H34">
+      <c r="K34">
         <v>11</v>
       </c>
-      <c r="I34">
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="J34">
+      <c r="M34">
         <v>7.5</v>
       </c>
-      <c r="K34">
+      <c r="N34">
         <v>10</v>
       </c>
-      <c r="L34">
+      <c r="O34">
         <v>10</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>5.6</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>6.3</v>
       </c>
-      <c r="P34" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>17</v>
-      </c>
-      <c r="R34" t="s">
-        <v>18</v>
-      </c>
-      <c r="S34" t="s">
-        <v>25</v>
+      <c r="S34">
+        <f>R34*B34+R34*C34+R34*D34</f>
+        <v>13.12103388643748</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.3">
@@ -2181,46 +2527,59 @@
         <v>34</v>
       </c>
       <c r="B35">
+        <v>0.27941793966043682</v>
+      </c>
+      <c r="C35">
+        <v>0.25262452204130248</v>
+      </c>
+      <c r="D35">
+        <v>0.77881468832730194</v>
+      </c>
+      <c r="E35">
         <v>426</v>
       </c>
-      <c r="C35">
+      <c r="F35">
         <v>7</v>
       </c>
-      <c r="D35">
+      <c r="G35">
         <v>150</v>
       </c>
-      <c r="E35">
+      <c r="H35">
         <v>3.8</v>
       </c>
-      <c r="F35">
+      <c r="I35">
         <v>240</v>
       </c>
-      <c r="G35">
+      <c r="J35">
         <v>390</v>
       </c>
-      <c r="H35">
+      <c r="K35">
         <v>10</v>
       </c>
-      <c r="I35">
+      <c r="L35">
         <v>3.2</v>
       </c>
-      <c r="J35">
+      <c r="M35">
         <v>6.3</v>
       </c>
-      <c r="K35">
+      <c r="N35">
         <v>8.5</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>4.0999999999999996</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>5</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>6.3</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>8.2584000451829596</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.3">
@@ -2228,46 +2587,59 @@
         <v>35</v>
       </c>
       <c r="B36">
+        <v>0.47290249376078031</v>
+      </c>
+      <c r="C36">
+        <v>0.83921092768474503</v>
+      </c>
+      <c r="D36">
+        <v>0.75454755377213112</v>
+      </c>
+      <c r="E36">
         <v>426</v>
       </c>
-      <c r="C36">
+      <c r="F36">
         <v>7</v>
       </c>
-      <c r="D36">
+      <c r="G36">
         <v>150</v>
       </c>
-      <c r="E36">
+      <c r="H36">
         <v>5.2</v>
       </c>
-      <c r="F36">
+      <c r="I36">
         <v>240</v>
       </c>
-      <c r="G36">
+      <c r="J36">
         <v>390</v>
       </c>
-      <c r="H36">
+      <c r="K36">
         <v>8</v>
       </c>
-      <c r="I36">
+      <c r="L36">
         <v>3.2</v>
       </c>
-      <c r="J36">
+      <c r="M36">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K36">
+      <c r="N36">
         <v>5.6</v>
       </c>
-      <c r="L36">
+      <c r="O36">
         <v>6.2</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>2.5</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>4.2</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>6.3</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>13.019964143871235</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.3">
@@ -2275,46 +2647,59 @@
         <v>36</v>
       </c>
       <c r="B37">
+        <v>0.1822246473105591</v>
+      </c>
+      <c r="C37">
+        <v>0.47595181530968989</v>
+      </c>
+      <c r="D37">
+        <v>0.10250935600214173</v>
+      </c>
+      <c r="E37">
         <v>529</v>
       </c>
-      <c r="C37">
+      <c r="F37">
         <v>9</v>
       </c>
-      <c r="D37">
+      <c r="G37">
         <v>350</v>
       </c>
-      <c r="E37">
+      <c r="H37">
         <v>4.7</v>
       </c>
-      <c r="F37">
+      <c r="I37">
         <v>285</v>
       </c>
-      <c r="G37">
+      <c r="J37">
         <v>415</v>
       </c>
-      <c r="H37">
+      <c r="K37">
         <v>9</v>
       </c>
-      <c r="I37">
+      <c r="L37">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J37">
+      <c r="M37">
         <v>7.5</v>
       </c>
-      <c r="K37">
+      <c r="N37">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L37">
+      <c r="O37">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>4.7</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>7.8</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>5.9333493852546475</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.3">
@@ -2322,46 +2707,59 @@
         <v>37</v>
       </c>
       <c r="B38">
+        <v>0.51933328776525933</v>
+      </c>
+      <c r="C38">
+        <v>0.92878366356520647</v>
+      </c>
+      <c r="D38">
+        <v>0.93557336518525613</v>
+      </c>
+      <c r="E38">
         <v>529</v>
       </c>
-      <c r="C38">
+      <c r="F38">
         <v>9</v>
       </c>
-      <c r="D38">
+      <c r="G38">
         <v>160</v>
       </c>
-      <c r="E38">
+      <c r="H38">
         <v>4.7</v>
       </c>
-      <c r="F38">
+      <c r="I38">
         <v>285</v>
       </c>
-      <c r="G38">
+      <c r="J38">
         <v>415</v>
       </c>
-      <c r="H38">
+      <c r="K38">
         <v>16</v>
       </c>
-      <c r="I38">
+      <c r="L38">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J38">
+      <c r="M38">
         <v>7.7</v>
       </c>
-      <c r="K38">
+      <c r="N38">
         <v>10.1</v>
       </c>
-      <c r="L38">
+      <c r="O38">
         <v>10.199999999999999</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>5.4</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>6.5</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>7.8</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="0"/>
+        <v>18.592784468822629</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.3">
@@ -2369,46 +2767,59 @@
         <v>38</v>
       </c>
       <c r="B39">
+        <v>0.21866754068147987</v>
+      </c>
+      <c r="C39">
+        <v>0.97552510520831082</v>
+      </c>
+      <c r="D39">
+        <v>0.70702649696824171</v>
+      </c>
+      <c r="E39">
         <v>529</v>
       </c>
-      <c r="C39">
+      <c r="F39">
         <v>9</v>
       </c>
-      <c r="D39">
+      <c r="G39">
         <v>150</v>
       </c>
-      <c r="E39">
+      <c r="H39">
         <v>5.3</v>
       </c>
-      <c r="F39">
+      <c r="I39">
         <v>285</v>
       </c>
-      <c r="G39">
+      <c r="J39">
         <v>415</v>
       </c>
-      <c r="H39">
+      <c r="K39">
         <v>14</v>
       </c>
-      <c r="I39">
+      <c r="L39">
         <v>4.8</v>
       </c>
-      <c r="J39">
+      <c r="M39">
         <v>7</v>
       </c>
-      <c r="K39">
+      <c r="N39">
         <v>9.5</v>
       </c>
-      <c r="L39">
+      <c r="O39">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>6.3</v>
       </c>
-      <c r="O39">
+      <c r="R39">
         <v>7.8</v>
+      </c>
+      <c r="S39">
+        <f t="shared" si="0"/>
+        <v>14.829509314292654</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.3">
@@ -2416,46 +2827,59 @@
         <v>39</v>
       </c>
       <c r="B40">
+        <v>0.35696046102845258</v>
+      </c>
+      <c r="C40">
+        <v>0.47585636264129283</v>
+      </c>
+      <c r="D40">
+        <v>0.56213643243036771</v>
+      </c>
+      <c r="E40">
         <v>720</v>
       </c>
-      <c r="C40">
+      <c r="F40">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="G40">
         <v>180</v>
       </c>
-      <c r="E40">
+      <c r="H40">
         <v>4.3</v>
       </c>
-      <c r="F40">
+      <c r="I40">
         <v>425</v>
       </c>
-      <c r="G40">
+      <c r="J40">
         <v>535</v>
       </c>
-      <c r="H40">
+      <c r="K40">
         <v>10</v>
       </c>
-      <c r="I40">
+      <c r="L40">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J40">
+      <c r="M40">
         <v>6.9</v>
       </c>
-      <c r="K40">
+      <c r="N40">
         <v>8.1999999999999993</v>
       </c>
-      <c r="L40">
+      <c r="O40">
         <v>8.4</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>6.6</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>7.6</v>
+      </c>
+      <c r="S40">
+        <f t="shared" si="0"/>
+        <v>10.601644746360858</v>
       </c>
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.3">
@@ -2463,46 +2887,59 @@
         <v>40</v>
       </c>
       <c r="B41">
+        <v>0.96147519609915566</v>
+      </c>
+      <c r="C41">
+        <v>0.64766967938505815</v>
+      </c>
+      <c r="D41">
+        <v>0.7675722507999001</v>
+      </c>
+      <c r="E41">
         <v>720</v>
       </c>
-      <c r="C41">
+      <c r="F41">
         <v>8</v>
       </c>
-      <c r="D41">
+      <c r="G41">
         <v>320</v>
       </c>
-      <c r="E41">
+      <c r="H41">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F41">
+      <c r="I41">
         <v>425</v>
       </c>
-      <c r="G41">
+      <c r="J41">
         <v>535</v>
       </c>
-      <c r="H41">
+      <c r="K41">
         <v>9</v>
       </c>
-      <c r="I41">
+      <c r="L41">
         <v>2.6</v>
       </c>
-      <c r="J41">
+      <c r="M41">
         <v>6.6</v>
       </c>
-      <c r="K41">
+      <c r="N41">
         <v>6.9</v>
       </c>
-      <c r="L41">
+      <c r="O41">
         <v>7</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>4.5</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>5.5</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>7.6</v>
+      </c>
+      <c r="S41">
+        <f t="shared" si="0"/>
+        <v>18.063050159759264</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.3">
@@ -2510,46 +2947,59 @@
         <v>41</v>
       </c>
       <c r="B42">
+        <v>0.92941944281379552</v>
+      </c>
+      <c r="C42">
+        <v>0.59438344832300871</v>
+      </c>
+      <c r="D42">
+        <v>0.83448438010892179</v>
+      </c>
+      <c r="E42">
         <v>720</v>
       </c>
-      <c r="C42">
+      <c r="F42">
         <v>8</v>
       </c>
-      <c r="D42">
+      <c r="G42">
         <v>180</v>
       </c>
-      <c r="E42">
+      <c r="H42">
         <v>6.2</v>
       </c>
-      <c r="F42">
+      <c r="I42">
         <v>425</v>
       </c>
-      <c r="G42">
+      <c r="J42">
         <v>535</v>
       </c>
-      <c r="H42">
+      <c r="K42">
         <v>8</v>
       </c>
-      <c r="I42">
+      <c r="L42">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J42">
+      <c r="M42">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K42">
+      <c r="N42">
         <v>5.0999999999999996</v>
       </c>
-      <c r="L42">
+      <c r="O42">
         <v>5.7</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>2.9</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>5.6</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>7.6</v>
+      </c>
+      <c r="S42">
+        <f t="shared" si="0"/>
+        <v>17.922983261467518</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.3">
@@ -2557,58 +3007,59 @@
         <v>42</v>
       </c>
       <c r="B43">
+        <v>0.99139308510486834</v>
+      </c>
+      <c r="C43">
+        <v>0.50878123575965228</v>
+      </c>
+      <c r="D43">
+        <v>0.35429456088950395</v>
+      </c>
+      <c r="E43">
         <v>305</v>
       </c>
-      <c r="C43">
+      <c r="F43">
         <v>6.4</v>
       </c>
-      <c r="D43">
+      <c r="G43">
         <v>26</v>
       </c>
-      <c r="E43">
+      <c r="H43">
         <v>5</v>
       </c>
-      <c r="F43">
+      <c r="I43">
         <v>351</v>
       </c>
-      <c r="G43">
+      <c r="J43">
         <v>543</v>
       </c>
-      <c r="H43">
+      <c r="K43">
         <v>15</v>
       </c>
-      <c r="I43">
+      <c r="L43">
         <v>14.4</v>
       </c>
-      <c r="J43">
+      <c r="M43">
         <v>14.9</v>
       </c>
-      <c r="K43">
+      <c r="N43">
         <v>19.8</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>18.399999999999999</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>9.4</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>11.4</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>11.8</v>
       </c>
-      <c r="P43" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>17</v>
-      </c>
-      <c r="R43" t="s">
-        <v>18</v>
-      </c>
-      <c r="S43" t="s">
-        <v>27</v>
+      <c r="S43">
+        <f t="shared" si="0"/>
+        <v>21.88273280469749</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.3">
@@ -2616,46 +3067,59 @@
         <v>43</v>
       </c>
       <c r="B44">
+        <v>0.16662203812916965</v>
+      </c>
+      <c r="C44">
+        <v>0.10545826862406849</v>
+      </c>
+      <c r="D44">
+        <v>0.55079387996305851</v>
+      </c>
+      <c r="E44">
         <v>305</v>
       </c>
-      <c r="C44">
+      <c r="F44">
         <v>6.4</v>
       </c>
-      <c r="D44">
+      <c r="G44">
         <v>33</v>
       </c>
-      <c r="E44">
+      <c r="H44">
         <v>4.3</v>
       </c>
-      <c r="F44">
+      <c r="I44">
         <v>382</v>
       </c>
-      <c r="G44">
+      <c r="J44">
         <v>570</v>
       </c>
-      <c r="H44">
+      <c r="K44">
         <v>16</v>
       </c>
-      <c r="I44">
+      <c r="L44">
         <v>14.7</v>
       </c>
-      <c r="J44">
+      <c r="M44">
         <v>16</v>
       </c>
-      <c r="K44">
+      <c r="N44">
         <v>21.1</v>
       </c>
-      <c r="L44">
+      <c r="O44">
         <v>19.899999999999999</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>10.7</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>12.4</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>12.8</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="0"/>
+        <v>10.532789589968598</v>
       </c>
     </row>
     <row r="45" spans="1:19" x14ac:dyDescent="0.3">
@@ -2663,46 +3127,59 @@
         <v>44</v>
       </c>
       <c r="B45">
+        <v>0.73168377813996965</v>
+      </c>
+      <c r="C45">
+        <v>0.18288992025171313</v>
+      </c>
+      <c r="D45">
+        <v>0.40095734652930637</v>
+      </c>
+      <c r="E45">
         <v>305</v>
       </c>
-      <c r="C45">
+      <c r="F45">
         <v>6.4</v>
       </c>
-      <c r="D45">
+      <c r="G45">
         <v>37</v>
       </c>
-      <c r="E45">
+      <c r="H45">
         <v>4.5999999999999996</v>
       </c>
-      <c r="F45">
+      <c r="I45">
         <v>351</v>
       </c>
-      <c r="G45">
+      <c r="J45">
         <v>463</v>
       </c>
-      <c r="H45">
+      <c r="K45">
         <v>14</v>
       </c>
-      <c r="I45">
+      <c r="L45">
         <v>12.9</v>
       </c>
-      <c r="J45">
+      <c r="M45">
         <v>14</v>
       </c>
-      <c r="K45">
+      <c r="N45">
         <v>16</v>
       </c>
-      <c r="L45">
+      <c r="O45">
         <v>15.3</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <v>10.9</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>11.8</v>
+      </c>
+      <c r="S45">
+        <f t="shared" si="0"/>
+        <v>15.523266330067674</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.3">
@@ -2710,46 +3187,59 @@
         <v>45</v>
       </c>
       <c r="B46">
+        <v>0.53634270052613775</v>
+      </c>
+      <c r="C46">
+        <v>0.2843646490406283</v>
+      </c>
+      <c r="D46">
+        <v>0.76041557917078884</v>
+      </c>
+      <c r="E46">
         <v>324</v>
       </c>
-      <c r="C46">
+      <c r="F46">
         <v>6</v>
       </c>
-      <c r="D46">
+      <c r="G46">
         <v>19</v>
       </c>
-      <c r="E46">
+      <c r="H46">
         <v>3.6</v>
       </c>
-      <c r="F46">
+      <c r="I46">
         <v>382</v>
       </c>
-      <c r="G46">
+      <c r="J46">
         <v>570</v>
       </c>
-      <c r="H46">
+      <c r="K46">
         <v>16</v>
       </c>
-      <c r="I46">
+      <c r="L46">
         <v>14.6</v>
       </c>
-      <c r="J46">
+      <c r="M46">
         <v>15.8</v>
       </c>
-      <c r="K46">
+      <c r="N46">
         <v>20.7</v>
       </c>
-      <c r="L46">
+      <c r="O46">
         <v>19.3</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>11.6</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>12.2</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>11.3</v>
+      </c>
+      <c r="S46">
+        <f>R46*B46+R46*C46+R46*D46</f>
+        <v>17.866689094734369</v>
       </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.3">
@@ -2757,46 +3247,59 @@
         <v>46</v>
       </c>
       <c r="B47">
+        <v>0.24889642479539353</v>
+      </c>
+      <c r="C47">
+        <v>0.33618897501497225</v>
+      </c>
+      <c r="D47">
+        <v>0.9382087653701201</v>
+      </c>
+      <c r="E47">
         <v>324</v>
       </c>
-      <c r="C47">
+      <c r="F47">
         <v>10.3</v>
       </c>
-      <c r="D47">
+      <c r="G47">
         <v>243</v>
       </c>
-      <c r="E47">
+      <c r="H47">
         <v>5.2</v>
       </c>
-      <c r="F47">
+      <c r="I47">
         <v>380</v>
       </c>
-      <c r="G47">
+      <c r="J47">
         <v>514</v>
       </c>
-      <c r="H47">
+      <c r="K47">
         <v>23</v>
       </c>
-      <c r="I47">
+      <c r="L47">
         <v>6.7</v>
       </c>
-      <c r="J47">
+      <c r="M47">
         <v>18.3</v>
       </c>
-      <c r="K47">
+      <c r="N47">
         <v>20.8</v>
       </c>
-      <c r="L47">
+      <c r="O47">
         <v>20.6</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>12.4</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>11.9</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>19.3</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="0"/>
+        <v>29.399577387983378</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.3">
@@ -2804,46 +3307,59 @@
         <v>47</v>
       </c>
       <c r="B48">
+        <v>0.29445970758049611</v>
+      </c>
+      <c r="C48">
+        <v>0.63557511162734837</v>
+      </c>
+      <c r="D48">
+        <v>0.74882292783401239</v>
+      </c>
+      <c r="E48">
         <v>324</v>
       </c>
-      <c r="C48">
+      <c r="F48">
         <v>10.3</v>
       </c>
-      <c r="D48">
+      <c r="G48">
         <v>243</v>
       </c>
-      <c r="E48">
+      <c r="H48">
         <v>5.2</v>
       </c>
-      <c r="F48">
+      <c r="I48">
         <v>380</v>
       </c>
-      <c r="G48">
+      <c r="J48">
         <v>514</v>
       </c>
-      <c r="H48">
+      <c r="K48">
         <v>22</v>
       </c>
-      <c r="I48">
+      <c r="L48">
         <v>6.7</v>
       </c>
-      <c r="J48">
+      <c r="M48">
         <v>18.3</v>
       </c>
-      <c r="K48">
+      <c r="N48">
         <v>20.8</v>
       </c>
-      <c r="L48">
+      <c r="O48">
         <v>20.6</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>12.4</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>11.9</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>19.3</v>
+      </c>
+      <c r="S48">
+        <f t="shared" si="0"/>
+        <v>32.401954517907839</v>
       </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.3">
@@ -2851,46 +3367,59 @@
         <v>48</v>
       </c>
       <c r="B49">
+        <v>5.2123153731769012E-3</v>
+      </c>
+      <c r="C49">
+        <v>0.86923725570769517</v>
+      </c>
+      <c r="D49">
+        <v>0.64706580310386119</v>
+      </c>
+      <c r="E49">
         <v>508</v>
       </c>
-      <c r="C49">
+      <c r="F49">
         <v>6.6</v>
       </c>
-      <c r="D49">
+      <c r="G49">
         <v>381</v>
       </c>
-      <c r="E49">
+      <c r="H49">
         <v>2.6</v>
       </c>
-      <c r="F49">
+      <c r="I49">
         <v>443</v>
       </c>
-      <c r="G49">
+      <c r="J49">
         <v>599</v>
       </c>
-      <c r="H49">
+      <c r="K49">
         <v>11</v>
       </c>
-      <c r="I49">
+      <c r="L49">
         <v>7.7</v>
       </c>
-      <c r="J49">
+      <c r="M49">
         <v>9.5</v>
       </c>
-      <c r="K49">
+      <c r="N49">
         <v>10.7</v>
       </c>
-      <c r="L49">
+      <c r="O49">
         <v>10.4</v>
       </c>
-      <c r="M49">
+      <c r="P49">
         <v>6.7</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <v>6.6</v>
       </c>
-      <c r="O49">
+      <c r="R49">
         <v>9.1999999999999993</v>
+      </c>
+      <c r="S49">
+        <f t="shared" si="0"/>
+        <v>13.997941442499545</v>
       </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.3">
@@ -2898,46 +3427,59 @@
         <v>49</v>
       </c>
       <c r="B50">
+        <v>3.250795618968394E-2</v>
+      </c>
+      <c r="C50">
+        <v>0.46175931625107802</v>
+      </c>
+      <c r="D50">
+        <v>0.40074686403194237</v>
+      </c>
+      <c r="E50">
         <v>508</v>
       </c>
-      <c r="C50">
+      <c r="F50">
         <v>6.4</v>
       </c>
-      <c r="D50">
+      <c r="G50">
         <v>900</v>
       </c>
-      <c r="E50">
+      <c r="H50">
         <v>3.4</v>
       </c>
-      <c r="F50">
+      <c r="I50">
         <v>430</v>
       </c>
-      <c r="G50">
+      <c r="J50">
         <v>573</v>
       </c>
-      <c r="H50">
+      <c r="K50">
         <v>8</v>
       </c>
-      <c r="I50">
+      <c r="L50">
         <v>5.6</v>
       </c>
-      <c r="J50">
+      <c r="M50">
         <v>7.2</v>
       </c>
-      <c r="K50">
+      <c r="N50">
         <v>7.3</v>
       </c>
-      <c r="L50">
+      <c r="O50">
         <v>6.8</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>4.7</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O50">
+      <c r="R50">
         <v>8.6999999999999993</v>
+      </c>
+      <c r="S50">
+        <f t="shared" si="0"/>
+        <v>7.7866229873125263</v>
       </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.3">
@@ -2945,46 +3487,59 @@
         <v>50</v>
       </c>
       <c r="B51">
+        <v>0.41401661679247925</v>
+      </c>
+      <c r="C51">
+        <v>0.55677358622025896</v>
+      </c>
+      <c r="D51">
+        <v>0.357721217476489</v>
+      </c>
+      <c r="E51">
         <v>508</v>
       </c>
-      <c r="C51">
+      <c r="F51">
         <v>6.4</v>
       </c>
-      <c r="D51">
+      <c r="G51">
         <v>1000</v>
       </c>
-      <c r="E51">
+      <c r="H51">
         <v>3.2</v>
       </c>
-      <c r="F51">
+      <c r="I51">
         <v>435</v>
       </c>
-      <c r="G51">
+      <c r="J51">
         <v>573</v>
       </c>
-      <c r="H51">
+      <c r="K51">
         <v>8</v>
       </c>
-      <c r="I51">
+      <c r="L51">
         <v>6.1</v>
       </c>
-      <c r="J51">
+      <c r="M51">
         <v>7.5</v>
       </c>
-      <c r="K51">
+      <c r="N51">
         <v>7.7</v>
       </c>
-      <c r="L51">
+      <c r="O51">
         <v>7.2</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>8.8000000000000007</v>
+      </c>
+      <c r="S51">
+        <f t="shared" si="0"/>
+        <v>11.690900500305201</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.3">
@@ -2992,46 +3547,59 @@
         <v>51</v>
       </c>
       <c r="B52">
+        <v>0.44362474739448743</v>
+      </c>
+      <c r="C52">
+        <v>0.88241520985799815</v>
+      </c>
+      <c r="D52">
+        <v>0.31317775201162301</v>
+      </c>
+      <c r="E52">
         <v>508</v>
       </c>
-      <c r="C52">
+      <c r="F52">
         <v>6.7</v>
       </c>
-      <c r="D52">
+      <c r="G52">
         <v>1016</v>
       </c>
-      <c r="E52">
+      <c r="H52">
         <v>2.7</v>
       </c>
-      <c r="F52">
+      <c r="I52">
         <v>430</v>
       </c>
-      <c r="G52">
+      <c r="J52">
         <v>601</v>
       </c>
-      <c r="H52">
+      <c r="K52">
         <v>12</v>
       </c>
-      <c r="I52">
+      <c r="L52">
         <v>7.5</v>
       </c>
-      <c r="J52">
+      <c r="M52">
         <v>8.9</v>
       </c>
-      <c r="K52">
+      <c r="N52">
         <v>10</v>
       </c>
-      <c r="L52">
+      <c r="O52">
         <v>9.5</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>6.3</v>
       </c>
-      <c r="N52">
+      <c r="Q52">
         <v>3.5</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>9.1</v>
+      </c>
+      <c r="S52">
+        <f t="shared" si="0"/>
+        <v>14.916881154303388</v>
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.3">
@@ -3039,46 +3607,59 @@
         <v>52</v>
       </c>
       <c r="B53">
+        <v>0.73044244091179822</v>
+      </c>
+      <c r="C53">
+        <v>0.27935806024344978</v>
+      </c>
+      <c r="D53">
+        <v>0.27125427310236294</v>
+      </c>
+      <c r="E53">
         <v>324</v>
       </c>
-      <c r="C53">
+      <c r="F53">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D53">
+      <c r="G53">
         <v>256</v>
       </c>
-      <c r="E53">
+      <c r="H53">
         <v>7</v>
       </c>
-      <c r="F53">
+      <c r="I53">
         <v>423</v>
       </c>
-      <c r="G53">
+      <c r="J53">
         <v>590</v>
       </c>
-      <c r="H53">
+      <c r="K53">
         <v>14</v>
       </c>
-      <c r="I53">
+      <c r="L53">
         <v>8.1</v>
       </c>
-      <c r="J53">
+      <c r="M53">
         <v>13.8</v>
       </c>
-      <c r="K53">
+      <c r="N53">
         <v>14.3</v>
       </c>
-      <c r="L53">
+      <c r="O53">
         <v>14.1</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>7.9</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <v>8.5</v>
       </c>
-      <c r="O53">
+      <c r="R53">
         <v>20.5</v>
+      </c>
+      <c r="S53">
+        <f t="shared" si="0"/>
+        <v>26.261622872281023</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.3">
@@ -3086,46 +3667,59 @@
         <v>53</v>
       </c>
       <c r="B54">
+        <v>0.52753972571601315</v>
+      </c>
+      <c r="C54">
+        <v>0.94979193687000918</v>
+      </c>
+      <c r="D54">
+        <v>5.5949655846197488E-2</v>
+      </c>
+      <c r="E54">
         <v>324</v>
       </c>
-      <c r="C54">
+      <c r="F54">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D54">
+      <c r="G54">
         <v>350</v>
       </c>
-      <c r="E54">
+      <c r="H54">
         <v>6.9</v>
       </c>
-      <c r="F54">
+      <c r="I54">
         <v>423</v>
       </c>
-      <c r="G54">
+      <c r="J54">
         <v>590</v>
       </c>
-      <c r="H54">
+      <c r="K54">
         <v>14</v>
       </c>
-      <c r="I54">
+      <c r="L54">
         <v>8.1</v>
       </c>
-      <c r="J54">
+      <c r="M54">
         <v>13.4</v>
       </c>
-      <c r="K54">
+      <c r="N54">
         <v>13.1</v>
       </c>
-      <c r="L54">
+      <c r="O54">
         <v>12.1</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>7.5</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <v>5.8</v>
       </c>
-      <c r="O54">
+      <c r="R54">
         <v>20.3</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="0"/>
+        <v>31.125610764174063</v>
       </c>
     </row>
     <row r="55" spans="1:19" x14ac:dyDescent="0.3">
@@ -3133,46 +3727,59 @@
         <v>54</v>
       </c>
       <c r="B55">
+        <v>0.78489537095172668</v>
+      </c>
+      <c r="C55">
+        <v>0.55913923634663865</v>
+      </c>
+      <c r="D55">
+        <v>1.9397153608827433E-2</v>
+      </c>
+      <c r="E55">
         <v>324</v>
       </c>
-      <c r="C55">
+      <c r="F55">
         <v>9.9</v>
       </c>
-      <c r="D55">
+      <c r="G55">
         <v>433</v>
       </c>
-      <c r="E55">
+      <c r="H55">
         <v>7.1</v>
       </c>
-      <c r="F55">
+      <c r="I55">
         <v>423</v>
       </c>
-      <c r="G55">
+      <c r="J55">
         <v>590</v>
       </c>
-      <c r="H55">
+      <c r="K55">
         <v>12</v>
       </c>
-      <c r="I55">
+      <c r="L55">
         <v>8.1</v>
       </c>
-      <c r="J55">
+      <c r="M55">
         <v>13.3</v>
       </c>
-      <c r="K55">
+      <c r="N55">
         <v>12.6</v>
       </c>
-      <c r="L55">
+      <c r="O55">
         <v>11.3</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>7.3</v>
       </c>
-      <c r="N55">
+      <c r="Q55">
         <v>3.8</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>20.7</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="0"/>
+        <v>28.223037450778886</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.3">
@@ -3180,46 +3787,59 @@
         <v>55</v>
       </c>
       <c r="B56">
+        <v>8.5728809935457395E-2</v>
+      </c>
+      <c r="C56">
+        <v>0.3018772587533759</v>
+      </c>
+      <c r="D56">
+        <v>0.30220774238252768</v>
+      </c>
+      <c r="E56">
         <v>324</v>
       </c>
-      <c r="C56">
+      <c r="F56">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D56">
+      <c r="G56">
         <v>528</v>
       </c>
-      <c r="E56">
+      <c r="H56">
         <v>7.1</v>
       </c>
-      <c r="F56">
+      <c r="I56">
         <v>423</v>
       </c>
-      <c r="G56">
+      <c r="J56">
         <v>590</v>
       </c>
-      <c r="H56">
+      <c r="K56">
         <v>11</v>
       </c>
-      <c r="I56">
+      <c r="L56">
         <v>7.5</v>
       </c>
-      <c r="J56">
+      <c r="M56">
         <v>12.4</v>
       </c>
-      <c r="K56">
+      <c r="N56">
         <v>11.3</v>
       </c>
-      <c r="L56">
+      <c r="O56">
         <v>9.9</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>6.7</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <v>1.4</v>
       </c>
-      <c r="O56">
+      <c r="R56">
         <v>20.3</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="0"/>
+        <v>14.003220364748628</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.3">
@@ -3227,58 +3847,59 @@
         <v>56</v>
       </c>
       <c r="B57">
+        <v>0.14471296220836294</v>
+      </c>
+      <c r="C57">
+        <v>0.26742347047409498</v>
+      </c>
+      <c r="D57">
+        <v>0.83094518082694802</v>
+      </c>
+      <c r="E57">
         <v>914</v>
       </c>
-      <c r="C57">
+      <c r="F57">
         <v>16.399999999999999</v>
       </c>
-      <c r="D57">
+      <c r="G57">
         <v>150</v>
       </c>
-      <c r="E57">
+      <c r="H57">
         <v>9</v>
       </c>
-      <c r="F57">
+      <c r="I57">
         <v>739</v>
       </c>
-      <c r="G57">
+      <c r="J57">
         <v>813</v>
       </c>
-      <c r="H57">
+      <c r="K57">
         <v>21</v>
       </c>
-      <c r="I57">
+      <c r="L57">
         <v>19.8</v>
       </c>
-      <c r="J57">
+      <c r="M57">
         <v>18</v>
       </c>
-      <c r="K57">
+      <c r="N57">
         <v>24.5</v>
       </c>
-      <c r="L57">
+      <c r="O57">
         <v>23.8</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>17.100000000000001</v>
       </c>
-      <c r="N57">
+      <c r="Q57">
         <v>20</v>
       </c>
-      <c r="O57">
+      <c r="R57">
         <v>21.2</v>
       </c>
-      <c r="P57" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>29</v>
-      </c>
-      <c r="R57" t="s">
-        <v>30</v>
-      </c>
-      <c r="S57" t="s">
-        <v>31</v>
+      <c r="S57">
+        <f>R57*B57+R57*C57+R57*D57</f>
+        <v>26.353330206399406</v>
       </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.3">
@@ -3286,46 +3907,59 @@
         <v>57</v>
       </c>
       <c r="B58">
+        <v>0.83475563594151536</v>
+      </c>
+      <c r="C58">
+        <v>0.8679450110037179</v>
+      </c>
+      <c r="D58">
+        <v>0.62972615345302418</v>
+      </c>
+      <c r="E58">
         <v>914</v>
       </c>
-      <c r="C58">
+      <c r="F58">
         <v>16.399999999999999</v>
       </c>
-      <c r="D58">
+      <c r="G58">
         <v>450</v>
       </c>
-      <c r="E58">
+      <c r="H58">
         <v>6</v>
       </c>
-      <c r="F58">
+      <c r="I58">
         <v>739</v>
       </c>
-      <c r="G58">
+      <c r="J58">
         <v>813</v>
       </c>
-      <c r="H58">
+      <c r="K58">
         <v>24</v>
       </c>
-      <c r="I58">
+      <c r="L58">
         <v>8.5</v>
       </c>
-      <c r="J58">
+      <c r="M58">
         <v>21.8</v>
       </c>
-      <c r="K58">
+      <c r="N58">
         <v>22.4</v>
       </c>
-      <c r="L58">
+      <c r="O58">
         <v>22.3</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>16.899999999999999</v>
       </c>
-      <c r="N58">
+      <c r="Q58">
         <v>18</v>
       </c>
-      <c r="O58">
+      <c r="R58">
         <v>21.2</v>
+      </c>
+      <c r="S58">
+        <f t="shared" si="0"/>
+        <v>49.44744816844306</v>
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.3">
@@ -3333,58 +3967,59 @@
         <v>58</v>
       </c>
       <c r="B59">
+        <v>5.0109811949605287E-2</v>
+      </c>
+      <c r="C59">
+        <v>0.65267607441156272</v>
+      </c>
+      <c r="D59">
+        <v>0.19269804121372414</v>
+      </c>
+      <c r="E59">
         <v>273</v>
       </c>
-      <c r="C59">
+      <c r="F59">
         <v>4.7</v>
       </c>
-      <c r="D59">
+      <c r="G59">
         <v>48</v>
       </c>
-      <c r="E59">
+      <c r="H59">
         <v>2.6</v>
       </c>
-      <c r="F59">
+      <c r="I59">
         <v>351</v>
       </c>
-      <c r="G59">
+      <c r="J59">
         <v>454</v>
       </c>
-      <c r="H59">
+      <c r="K59">
         <v>14</v>
       </c>
-      <c r="I59">
+      <c r="L59">
         <v>8.1999999999999993</v>
       </c>
-      <c r="J59">
+      <c r="M59">
         <v>11.3</v>
       </c>
-      <c r="K59">
+      <c r="N59">
         <v>12.8</v>
       </c>
-      <c r="L59">
+      <c r="O59">
         <v>12.5</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>7.5</v>
       </c>
-      <c r="N59">
+      <c r="Q59">
         <v>9</v>
       </c>
-      <c r="O59">
+      <c r="R59">
         <v>9.6999999999999993</v>
       </c>
-      <c r="P59" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>29</v>
-      </c>
-      <c r="R59" t="s">
-        <v>33</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1</v>
+      <c r="S59">
+        <f t="shared" si="0"/>
+        <v>8.6861940974764522</v>
       </c>
     </row>
     <row r="60" spans="1:19" x14ac:dyDescent="0.3">
@@ -3392,46 +4027,59 @@
         <v>59</v>
       </c>
       <c r="B60">
+        <v>0.28566745702712104</v>
+      </c>
+      <c r="C60">
+        <v>2.9151612928396298E-2</v>
+      </c>
+      <c r="D60">
+        <v>0.69832483529586586</v>
+      </c>
+      <c r="E60">
         <v>273</v>
       </c>
-      <c r="C60">
+      <c r="F60">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D60">
+      <c r="G60">
         <v>102</v>
       </c>
-      <c r="E60">
+      <c r="H60">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F60">
+      <c r="I60">
         <v>351</v>
       </c>
-      <c r="G60">
+      <c r="J60">
         <v>454</v>
       </c>
-      <c r="H60">
+      <c r="K60">
         <v>15</v>
       </c>
-      <c r="I60">
+      <c r="L60">
         <v>4.7</v>
       </c>
-      <c r="J60">
+      <c r="M60">
         <v>10.4</v>
       </c>
-      <c r="K60">
+      <c r="N60">
         <v>12.1</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>12.2</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>7.5</v>
       </c>
-      <c r="N60">
+      <c r="Q60">
         <v>8.5</v>
       </c>
-      <c r="O60">
+      <c r="R60">
         <v>10.1</v>
+      </c>
+      <c r="S60">
+        <f t="shared" si="0"/>
+        <v>10.23275344303897</v>
       </c>
     </row>
     <row r="61" spans="1:19" x14ac:dyDescent="0.3">
@@ -3439,46 +4087,59 @@
         <v>60</v>
       </c>
       <c r="B61">
+        <v>0.88210420293847114</v>
+      </c>
+      <c r="C61">
+        <v>0.90761577246222136</v>
+      </c>
+      <c r="D61">
+        <v>0.5704718106898069</v>
+      </c>
+      <c r="E61">
         <v>274</v>
       </c>
-      <c r="C61">
+      <c r="F61">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D61">
+      <c r="G61">
         <v>46</v>
       </c>
-      <c r="E61">
+      <c r="H61">
         <v>1.6</v>
       </c>
-      <c r="F61">
+      <c r="I61">
         <v>351</v>
       </c>
-      <c r="G61">
+      <c r="J61">
         <v>454</v>
       </c>
-      <c r="H61">
+      <c r="K61">
         <v>15</v>
       </c>
-      <c r="I61">
+      <c r="L61">
         <v>8.6</v>
       </c>
-      <c r="J61">
+      <c r="M61">
         <v>13.5</v>
       </c>
-      <c r="K61">
+      <c r="N61">
         <v>15.2</v>
       </c>
-      <c r="L61">
+      <c r="O61">
         <v>14.7</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N61">
+      <c r="Q61">
         <v>10.6</v>
       </c>
-      <c r="O61">
+      <c r="R61">
         <v>10</v>
+      </c>
+      <c r="S61">
+        <f t="shared" si="0"/>
+        <v>23.601917860904997</v>
       </c>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.3">
@@ -3486,46 +4147,59 @@
         <v>61</v>
       </c>
       <c r="B62">
+        <v>0.96952265159703244</v>
+      </c>
+      <c r="C62">
+        <v>0.54770618646764702</v>
+      </c>
+      <c r="D62">
+        <v>0.1523397534288945</v>
+      </c>
+      <c r="E62">
         <v>274</v>
       </c>
-      <c r="C62">
+      <c r="F62">
         <v>5</v>
       </c>
-      <c r="D62">
+      <c r="G62">
         <v>124</v>
       </c>
-      <c r="E62">
+      <c r="H62">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F62">
+      <c r="I62">
         <v>351</v>
       </c>
-      <c r="G62">
+      <c r="J62">
         <v>454</v>
       </c>
-      <c r="H62">
+      <c r="K62">
         <v>13</v>
       </c>
-      <c r="I62">
+      <c r="L62">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J62">
+      <c r="M62">
         <v>10.7</v>
       </c>
-      <c r="K62">
+      <c r="N62">
         <v>11.9</v>
       </c>
-      <c r="L62">
+      <c r="O62">
         <v>12</v>
       </c>
-      <c r="M62">
+      <c r="P62">
         <v>7.5</v>
       </c>
-      <c r="N62">
+      <c r="Q62">
         <v>8.1999999999999993</v>
       </c>
-      <c r="O62">
+      <c r="R62">
         <v>10.199999999999999</v>
+      </c>
+      <c r="S62">
+        <f t="shared" si="0"/>
+        <v>17.029599633234454</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.3">
@@ -3533,46 +4207,59 @@
         <v>62</v>
       </c>
       <c r="B63">
+        <v>0.35992462520455781</v>
+      </c>
+      <c r="C63">
+        <v>0.63223581054391609</v>
+      </c>
+      <c r="D63">
+        <v>0.29441623963579155</v>
+      </c>
+      <c r="E63">
         <v>274</v>
       </c>
-      <c r="C63">
+      <c r="F63">
         <v>5</v>
       </c>
-      <c r="D63">
+      <c r="G63">
         <v>38</v>
       </c>
-      <c r="E63">
+      <c r="H63">
         <v>2.7</v>
       </c>
-      <c r="F63">
+      <c r="I63">
         <v>351</v>
       </c>
-      <c r="G63">
+      <c r="J63">
         <v>454</v>
       </c>
-      <c r="H63">
+      <c r="K63">
         <v>15</v>
       </c>
-      <c r="I63">
+      <c r="L63">
         <v>10.1</v>
       </c>
-      <c r="J63">
+      <c r="M63">
         <v>12.9</v>
       </c>
-      <c r="K63">
+      <c r="N63">
         <v>14.6</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>14</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N63">
+      <c r="Q63">
         <v>10</v>
       </c>
-      <c r="O63">
+      <c r="R63">
         <v>10.199999999999999</v>
+      </c>
+      <c r="S63">
+        <f t="shared" si="0"/>
+        <v>13.123082088919507</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.3">
@@ -3580,1409 +4267,1799 @@
         <v>63</v>
       </c>
       <c r="B64">
+        <v>0.5296194619673229</v>
+      </c>
+      <c r="C64">
+        <v>0.33686771571418439</v>
+      </c>
+      <c r="D64">
+        <v>0.70595859760456103</v>
+      </c>
+      <c r="E64">
         <v>529</v>
       </c>
-      <c r="C64">
+      <c r="F64">
         <v>9</v>
       </c>
-      <c r="D64">
+      <c r="G64">
         <v>350</v>
       </c>
-      <c r="E64">
+      <c r="H64">
         <v>4.7</v>
       </c>
-      <c r="F64">
+      <c r="I64">
         <v>285</v>
       </c>
-      <c r="G64">
+      <c r="J64">
         <v>415</v>
       </c>
-      <c r="H64">
+      <c r="K64">
         <v>9</v>
       </c>
-      <c r="I64">
+      <c r="L64">
         <v>5.0999999999999996</v>
       </c>
-      <c r="J64">
+      <c r="M64">
         <v>7.5</v>
       </c>
-      <c r="K64">
+      <c r="N64">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L64">
+      <c r="O64">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>4.7</v>
       </c>
-      <c r="N64">
+      <c r="Q64">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O64">
+      <c r="R64">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S64">
+        <f t="shared" si="0"/>
+        <v>12.265077047231333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65">
+        <v>1.9913547382773178E-2</v>
+      </c>
+      <c r="C65">
+        <v>0.89362659513905329</v>
+      </c>
+      <c r="D65">
+        <v>0.376962654863917</v>
+      </c>
+      <c r="E65">
         <v>324</v>
       </c>
-      <c r="C65">
+      <c r="F65">
         <v>8.5</v>
       </c>
-      <c r="D65">
+      <c r="G65">
         <v>0</v>
       </c>
-      <c r="E65">
+      <c r="H65">
         <v>0</v>
       </c>
-      <c r="F65">
+      <c r="I65">
         <v>356</v>
       </c>
-      <c r="G65">
+      <c r="J65">
         <v>469</v>
       </c>
-      <c r="H65">
+      <c r="K65">
         <v>25</v>
       </c>
-      <c r="I65">
+      <c r="L65">
         <v>20.7</v>
       </c>
-      <c r="J65">
+      <c r="M65">
         <v>22.3</v>
       </c>
-      <c r="K65">
+      <c r="N65">
         <v>25.3</v>
       </c>
-      <c r="L65">
+      <c r="O65">
         <v>24.6</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>16.8</v>
       </c>
-      <c r="N65">
+      <c r="Q65">
         <v>20.7</v>
       </c>
-      <c r="O65">
+      <c r="R65">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S65">
+        <f t="shared" si="0"/>
+        <v>19.228491681047579</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66">
+        <v>0.20266687289419505</v>
+      </c>
+      <c r="C66">
+        <v>0.41472517827349598</v>
+      </c>
+      <c r="D66">
+        <v>0.87596200874488872</v>
+      </c>
+      <c r="E66">
         <v>323</v>
       </c>
-      <c r="C66">
+      <c r="F66">
         <v>8.6</v>
       </c>
-      <c r="D66">
+      <c r="G66">
         <v>64</v>
       </c>
-      <c r="E66">
+      <c r="H66">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F66">
+      <c r="I66">
         <v>356</v>
       </c>
-      <c r="G66">
+      <c r="J66">
         <v>469</v>
       </c>
-      <c r="H66">
+      <c r="K66">
         <v>24</v>
       </c>
-      <c r="I66">
+      <c r="L66">
         <v>13.9</v>
       </c>
-      <c r="J66">
+      <c r="M66">
         <v>18.899999999999999</v>
       </c>
-      <c r="K66">
+      <c r="N66">
         <v>24.2</v>
       </c>
-      <c r="L66">
+      <c r="O66">
         <v>23.3</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>15.4</v>
       </c>
-      <c r="N66">
+      <c r="Q66">
         <v>16.5</v>
       </c>
-      <c r="O66">
+      <c r="R66">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S66">
+        <f t="shared" si="0"/>
+        <v>22.698981710671212</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67">
+        <v>0.98443737953595867</v>
+      </c>
+      <c r="C67">
+        <v>0.57204715317268873</v>
+      </c>
+      <c r="D67">
+        <v>0.37771263970835589</v>
+      </c>
+      <c r="E67">
         <v>324</v>
       </c>
-      <c r="C67">
+      <c r="F67">
         <v>8.6</v>
       </c>
-      <c r="D67">
+      <c r="G67">
         <v>0</v>
       </c>
-      <c r="E67">
+      <c r="H67">
         <v>0</v>
       </c>
-      <c r="F67">
+      <c r="I67">
         <v>356</v>
       </c>
-      <c r="G67">
+      <c r="J67">
         <v>469</v>
       </c>
-      <c r="H67">
+      <c r="K67">
         <v>24</v>
       </c>
-      <c r="I67">
+      <c r="L67">
         <v>21</v>
       </c>
-      <c r="J67">
+      <c r="M67">
         <v>22.6</v>
       </c>
-      <c r="K67">
+      <c r="N67">
         <v>25.6</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>24.9</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>17</v>
       </c>
-      <c r="N67">
+      <c r="Q67">
         <v>21</v>
       </c>
-      <c r="O67">
+      <c r="R67">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S67">
+        <f>R67*B67+R67*C67+R67*D67</f>
+        <v>29.206377303496748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68">
+        <v>0.94511081618749848</v>
+      </c>
+      <c r="C68">
+        <v>1.77563031124921E-2</v>
+      </c>
+      <c r="D68">
+        <v>0.27674594004818076</v>
+      </c>
+      <c r="E68">
         <v>324</v>
       </c>
-      <c r="C68">
+      <c r="F68">
         <v>8.5</v>
       </c>
-      <c r="D68">
+      <c r="G68">
         <v>0</v>
       </c>
-      <c r="E68">
+      <c r="H68">
         <v>0</v>
       </c>
-      <c r="F68">
+      <c r="I68">
         <v>356</v>
       </c>
-      <c r="G68">
+      <c r="J68">
         <v>469</v>
       </c>
-      <c r="H68">
+      <c r="K68">
         <v>25</v>
       </c>
-      <c r="I68">
+      <c r="L68">
         <v>20.7</v>
       </c>
-      <c r="J68">
+      <c r="M68">
         <v>22.3</v>
       </c>
-      <c r="K68">
+      <c r="N68">
         <v>25.3</v>
       </c>
-      <c r="L68">
+      <c r="O68">
         <v>24.6</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>16.8</v>
       </c>
-      <c r="N68">
+      <c r="Q68">
         <v>20.7</v>
       </c>
-      <c r="O68">
+      <c r="R68">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S68">
+        <f t="shared" si="0"/>
+        <v>18.470234584287756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69">
+        <v>0.56006808661551055</v>
+      </c>
+      <c r="C69">
+        <v>0.74540698519344806</v>
+      </c>
+      <c r="D69">
+        <v>6.9740118884492608E-2</v>
+      </c>
+      <c r="E69">
         <v>323</v>
       </c>
-      <c r="C69">
+      <c r="F69">
         <v>8.6</v>
       </c>
-      <c r="D69">
+      <c r="G69">
         <v>61</v>
       </c>
-      <c r="E69">
+      <c r="H69">
         <v>2.7</v>
       </c>
-      <c r="F69">
+      <c r="I69">
         <v>356</v>
       </c>
-      <c r="G69">
+      <c r="J69">
         <v>469</v>
       </c>
-      <c r="H69">
+      <c r="K69">
         <v>25</v>
       </c>
-      <c r="I69">
+      <c r="L69">
         <v>14.3</v>
       </c>
-      <c r="J69">
+      <c r="M69">
         <v>18</v>
       </c>
-      <c r="K69">
+      <c r="N69">
         <v>23.9</v>
       </c>
-      <c r="L69">
+      <c r="O69">
         <v>22.9</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>15</v>
       </c>
-      <c r="N69">
+      <c r="Q69">
         <v>16</v>
       </c>
-      <c r="O69">
+      <c r="R69">
         <v>15.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S69">
+        <f t="shared" ref="S69:S93" si="1">R69*B69+R69*C69+R69*D69</f>
+        <v>20.903270898540455</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70">
+        <v>0.5581073625985441</v>
+      </c>
+      <c r="C70">
+        <v>0.19418423247902483</v>
+      </c>
+      <c r="D70">
+        <v>0.39232608368925237</v>
+      </c>
+      <c r="E70">
         <v>322</v>
       </c>
-      <c r="C70">
+      <c r="F70">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D70">
+      <c r="G70">
         <v>0</v>
       </c>
-      <c r="E70">
+      <c r="H70">
         <v>0</v>
       </c>
-      <c r="F70">
+      <c r="I70">
         <v>356</v>
       </c>
-      <c r="G70">
+      <c r="J70">
         <v>469</v>
       </c>
-      <c r="H70">
+      <c r="K70">
         <v>22</v>
       </c>
-      <c r="I70">
+      <c r="L70">
         <v>20.399999999999999</v>
       </c>
-      <c r="J70">
+      <c r="M70">
         <v>21.9</v>
       </c>
-      <c r="K70">
+      <c r="N70">
         <v>24.8</v>
       </c>
-      <c r="L70">
+      <c r="O70">
         <v>24.2</v>
       </c>
-      <c r="M70">
+      <c r="P70">
         <v>16.5</v>
       </c>
-      <c r="N70">
+      <c r="Q70">
         <v>20.399999999999999</v>
       </c>
-      <c r="O70">
+      <c r="R70">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S70">
+        <f t="shared" si="1"/>
+        <v>16.825879877872271</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71">
+        <v>0.39689934689628292</v>
+      </c>
+      <c r="C71">
+        <v>0.30315752738167134</v>
+      </c>
+      <c r="D71">
+        <v>0.83793372461088611</v>
+      </c>
+      <c r="E71">
         <v>324</v>
       </c>
-      <c r="C71">
+      <c r="F71">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D71">
+      <c r="G71">
         <v>0</v>
       </c>
-      <c r="E71">
+      <c r="H71">
         <v>0</v>
       </c>
-      <c r="F71">
+      <c r="I71">
         <v>356</v>
       </c>
-      <c r="G71">
+      <c r="J71">
         <v>469</v>
       </c>
-      <c r="H71">
+      <c r="K71">
         <v>24</v>
       </c>
-      <c r="I71">
+      <c r="L71">
         <v>21.2</v>
       </c>
-      <c r="J71">
+      <c r="M71">
         <v>22.8</v>
       </c>
-      <c r="K71">
+      <c r="N71">
         <v>25.9</v>
       </c>
-      <c r="L71">
+      <c r="O71">
         <v>25.2</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>17.2</v>
       </c>
-      <c r="N71">
+      <c r="Q71">
         <v>21.2</v>
       </c>
-      <c r="O71">
+      <c r="R71">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S71">
+        <f t="shared" si="1"/>
+        <v>23.531256162999259</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72">
+        <v>0.52368628336658174</v>
+      </c>
+      <c r="C72">
+        <v>0.77982432674046753</v>
+      </c>
+      <c r="D72">
+        <v>0.65666977907931134</v>
+      </c>
+      <c r="E72">
         <v>324</v>
       </c>
-      <c r="C72">
+      <c r="F72">
         <v>8.4</v>
       </c>
-      <c r="D72">
+      <c r="G72">
         <v>0</v>
       </c>
-      <c r="E72">
+      <c r="H72">
         <v>0</v>
       </c>
-      <c r="F72">
+      <c r="I72">
         <v>356</v>
       </c>
-      <c r="G72">
+      <c r="J72">
         <v>469</v>
       </c>
-      <c r="H72">
+      <c r="K72">
         <v>23</v>
       </c>
-      <c r="I72">
+      <c r="L72">
         <v>20.5</v>
       </c>
-      <c r="J72">
+      <c r="M72">
         <v>22</v>
       </c>
-      <c r="K72">
+      <c r="N72">
         <v>25</v>
       </c>
-      <c r="L72">
+      <c r="O72">
         <v>24.3</v>
       </c>
-      <c r="M72">
+      <c r="P72">
         <v>16.600000000000001</v>
       </c>
-      <c r="N72">
+      <c r="Q72">
         <v>20.5</v>
       </c>
-      <c r="O72">
+      <c r="R72">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S72">
+        <f t="shared" si="1"/>
+        <v>29.010669759958141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73">
+        <v>0.85380366792363493</v>
+      </c>
+      <c r="C73">
+        <v>0.71797498615988276</v>
+      </c>
+      <c r="D73">
+        <v>0.15548348488366592</v>
+      </c>
+      <c r="E73">
         <v>324</v>
       </c>
-      <c r="C73">
+      <c r="F73">
         <v>8.6</v>
       </c>
-      <c r="D73">
+      <c r="G73">
         <v>127</v>
       </c>
-      <c r="E73">
+      <c r="H73">
         <v>2.7</v>
       </c>
-      <c r="F73">
+      <c r="I73">
         <v>356</v>
       </c>
-      <c r="G73">
+      <c r="J73">
         <v>469</v>
       </c>
-      <c r="H73">
+      <c r="K73">
         <v>22</v>
       </c>
-      <c r="I73">
+      <c r="L73">
         <v>8.5</v>
       </c>
-      <c r="J73">
+      <c r="M73">
         <v>17.899999999999999</v>
       </c>
-      <c r="K73">
+      <c r="N73">
         <v>21.6</v>
       </c>
-      <c r="L73">
+      <c r="O73">
         <v>21.2</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>13.4</v>
       </c>
-      <c r="N73">
+      <c r="Q73">
         <v>14.2</v>
       </c>
-      <c r="O73">
+      <c r="R73">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="1"/>
+        <v>26.081658298404474</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74">
+        <v>5.8598606778949458E-2</v>
+      </c>
+      <c r="C74">
+        <v>0.29318198288208619</v>
+      </c>
+      <c r="D74">
+        <v>0.83476183913472868</v>
+      </c>
+      <c r="E74">
         <v>323</v>
       </c>
-      <c r="C74">
+      <c r="F74">
         <v>8.5</v>
       </c>
-      <c r="D74">
+      <c r="G74">
         <v>51</v>
       </c>
-      <c r="E74">
+      <c r="H74">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F74">
+      <c r="I74">
         <v>356</v>
       </c>
-      <c r="G74">
+      <c r="J74">
         <v>469</v>
       </c>
-      <c r="H74">
+      <c r="K74">
         <v>22</v>
       </c>
-      <c r="I74">
+      <c r="L74">
         <v>15.4</v>
       </c>
-      <c r="J74">
+      <c r="M74">
         <v>18.7</v>
       </c>
-      <c r="K74">
+      <c r="N74">
         <v>24.3</v>
       </c>
-      <c r="L74">
+      <c r="O74">
         <v>23.3</v>
       </c>
-      <c r="M74">
+      <c r="P74">
         <v>15.5</v>
       </c>
-      <c r="N74">
+      <c r="Q74">
         <v>16.600000000000001</v>
       </c>
-      <c r="O74">
+      <c r="R74">
         <v>15</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S74">
+        <f t="shared" si="1"/>
+        <v>17.798136431936463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75">
+        <v>0.54808418533408865</v>
+      </c>
+      <c r="C75">
+        <v>0.58706302243576269</v>
+      </c>
+      <c r="D75">
+        <v>0.60781707117202155</v>
+      </c>
+      <c r="E75">
         <v>324</v>
       </c>
-      <c r="C75">
+      <c r="F75">
         <v>8.6</v>
       </c>
-      <c r="D75">
+      <c r="G75">
         <v>0</v>
       </c>
-      <c r="E75">
+      <c r="H75">
         <v>0</v>
       </c>
-      <c r="F75">
+      <c r="I75">
         <v>356</v>
       </c>
-      <c r="G75">
+      <c r="J75">
         <v>469</v>
       </c>
-      <c r="H75">
+      <c r="K75">
         <v>25</v>
       </c>
-      <c r="I75">
+      <c r="L75">
         <v>21</v>
       </c>
-      <c r="J75">
+      <c r="M75">
         <v>22.6</v>
       </c>
-      <c r="K75">
+      <c r="N75">
         <v>25.6</v>
       </c>
-      <c r="L75">
+      <c r="O75">
         <v>24.9</v>
       </c>
-      <c r="M75">
+      <c r="P75">
         <v>17</v>
       </c>
-      <c r="N75">
+      <c r="Q75">
         <v>21</v>
       </c>
-      <c r="O75">
+      <c r="R75">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S75">
+        <f t="shared" si="1"/>
+        <v>26.318760612022277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76">
+        <v>0.69728908899860897</v>
+      </c>
+      <c r="C76">
+        <v>4.1085503091807807E-2</v>
+      </c>
+      <c r="D76">
+        <v>0.90287726462751394</v>
+      </c>
+      <c r="E76">
         <v>864</v>
       </c>
-      <c r="C76">
+      <c r="F76">
         <v>9.6</v>
       </c>
-      <c r="D76">
+      <c r="G76">
         <v>213</v>
       </c>
-      <c r="E76">
+      <c r="H76">
         <v>3.6</v>
       </c>
-      <c r="F76">
+      <c r="I76">
         <v>400</v>
       </c>
-      <c r="G76">
+      <c r="J76">
         <v>508</v>
       </c>
-      <c r="H76">
+      <c r="K76">
         <v>11</v>
       </c>
-      <c r="I76">
+      <c r="L76">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J76">
+      <c r="M76">
         <v>7.8</v>
       </c>
-      <c r="K76">
+      <c r="N76">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L76">
+      <c r="O76">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>6</v>
       </c>
-      <c r="N76">
+      <c r="Q76">
         <v>6.9</v>
       </c>
-      <c r="O76">
+      <c r="R76">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S76">
+        <f t="shared" si="1"/>
+        <v>11.652888182697307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77">
+        <v>0.91121513666324372</v>
+      </c>
+      <c r="C77">
+        <v>0.76661498976858222</v>
+      </c>
+      <c r="D77">
+        <v>0.41607884535108808</v>
+      </c>
+      <c r="E77">
         <v>864</v>
       </c>
-      <c r="C77">
+      <c r="F77">
         <v>9.5</v>
       </c>
-      <c r="D77">
+      <c r="G77">
         <v>185</v>
       </c>
-      <c r="E77">
+      <c r="H77">
         <v>3</v>
       </c>
-      <c r="F77">
+      <c r="I77">
         <v>400</v>
       </c>
-      <c r="G77">
+      <c r="J77">
         <v>508</v>
       </c>
-      <c r="H77">
+      <c r="K77">
         <v>11</v>
       </c>
-      <c r="I77">
+      <c r="L77">
         <v>4.5999999999999996</v>
       </c>
-      <c r="J77">
+      <c r="M77">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K77">
+      <c r="N77">
         <v>9.8000000000000007</v>
       </c>
-      <c r="L77">
+      <c r="O77">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M77">
+      <c r="P77">
         <v>6.4</v>
       </c>
-      <c r="N77">
+      <c r="Q77">
         <v>7.3</v>
       </c>
-      <c r="O77">
+      <c r="R77">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S77">
+        <f t="shared" si="1"/>
+        <v>14.657362802480398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78">
+        <v>0.91421247825280127</v>
+      </c>
+      <c r="C78">
+        <v>0.54078573714198819</v>
+      </c>
+      <c r="D78">
+        <v>0.70025528929945402</v>
+      </c>
+      <c r="E78">
         <v>273</v>
       </c>
-      <c r="C78">
+      <c r="F78">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D78">
+      <c r="G78">
         <v>241</v>
       </c>
-      <c r="E78">
+      <c r="H78">
         <v>4</v>
       </c>
-      <c r="F78">
+      <c r="I78">
         <v>409</v>
       </c>
-      <c r="G78">
+      <c r="J78">
         <v>481</v>
       </c>
-      <c r="H78">
+      <c r="K78">
         <v>21</v>
       </c>
-      <c r="I78">
+      <c r="L78">
         <v>14.3</v>
       </c>
-      <c r="J78">
+      <c r="M78">
         <v>19.100000000000001</v>
       </c>
-      <c r="K78">
+      <c r="N78">
         <v>18.600000000000001</v>
       </c>
-      <c r="L78">
+      <c r="O78">
         <v>18.100000000000001</v>
       </c>
-      <c r="M78">
+      <c r="P78">
         <v>12.9</v>
       </c>
-      <c r="N78">
+      <c r="Q78">
         <v>11.6</v>
       </c>
-      <c r="O78">
+      <c r="R78">
         <v>19.899999999999999</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S78">
+        <f t="shared" si="1"/>
+        <v>42.889544743415442</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79">
+        <v>0.1067001372890215</v>
+      </c>
+      <c r="C79">
+        <v>0.82690283268967979</v>
+      </c>
+      <c r="D79">
+        <v>1.9237036677584252E-2</v>
+      </c>
+      <c r="E79">
         <v>273</v>
       </c>
-      <c r="C79">
+      <c r="F79">
         <v>5.3</v>
       </c>
-      <c r="D79">
+      <c r="G79">
         <v>0</v>
       </c>
-      <c r="E79">
+      <c r="H79">
         <v>0</v>
       </c>
-      <c r="F79">
+      <c r="I79">
         <v>389</v>
       </c>
-      <c r="G79">
+      <c r="J79">
         <v>502</v>
       </c>
-      <c r="H79">
+      <c r="K79">
         <v>17</v>
       </c>
-      <c r="I79">
+      <c r="L79">
         <v>16.8</v>
       </c>
-      <c r="J79">
+      <c r="M79">
         <v>17.8</v>
       </c>
-      <c r="K79">
+      <c r="N79">
         <v>19.899999999999999</v>
       </c>
-      <c r="L79">
+      <c r="O79">
         <v>19.5</v>
       </c>
-      <c r="M79">
+      <c r="P79">
         <v>13.6</v>
       </c>
-      <c r="N79">
+      <c r="Q79">
         <v>16.8</v>
       </c>
-      <c r="O79">
+      <c r="R79">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S79">
+        <f t="shared" si="1"/>
+        <v>11.529364080541056</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80">
+        <v>0.30980033240087246</v>
+      </c>
+      <c r="C80">
+        <v>0.5273432758196962</v>
+      </c>
+      <c r="D80">
+        <v>9.9810659498020926E-2</v>
+      </c>
+      <c r="E80">
         <v>613</v>
       </c>
-      <c r="C80">
+      <c r="F80">
         <v>6.4</v>
       </c>
-      <c r="D80">
+      <c r="G80">
         <v>1433</v>
       </c>
-      <c r="E80">
+      <c r="H80">
         <v>3.6</v>
       </c>
-      <c r="F80">
+      <c r="I80">
         <v>403</v>
       </c>
-      <c r="G80">
+      <c r="J80">
         <v>535</v>
       </c>
-      <c r="H80">
+      <c r="K80">
         <v>8</v>
       </c>
-      <c r="I80">
+      <c r="L80">
         <v>4.0999999999999996</v>
       </c>
-      <c r="J80">
+      <c r="M80">
         <v>5.3</v>
       </c>
-      <c r="K80">
+      <c r="N80">
         <v>5.2</v>
       </c>
-      <c r="L80">
+      <c r="O80">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M80">
+      <c r="P80">
         <v>3.4</v>
       </c>
-      <c r="N80">
+      <c r="Q80">
         <v>0.6</v>
       </c>
-      <c r="O80">
+      <c r="R80">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S80">
+        <f t="shared" si="1"/>
+        <v>6.2775935937145508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81">
+        <v>0.25431752482360437</v>
+      </c>
+      <c r="C81">
+        <v>0.33463562462161023</v>
+      </c>
+      <c r="D81">
+        <v>0.48625829124101438</v>
+      </c>
+      <c r="E81">
         <v>612</v>
       </c>
-      <c r="C81">
+      <c r="F81">
         <v>6.4</v>
       </c>
-      <c r="D81">
+      <c r="G81">
         <v>1372</v>
       </c>
-      <c r="E81">
+      <c r="H81">
         <v>2.6</v>
       </c>
-      <c r="F81">
+      <c r="I81">
         <v>403</v>
       </c>
-      <c r="G81">
+      <c r="J81">
         <v>535</v>
       </c>
-      <c r="H81">
+      <c r="K81">
         <v>10</v>
       </c>
-      <c r="I81">
+      <c r="L81">
         <v>5.6</v>
       </c>
-      <c r="J81">
+      <c r="M81">
         <v>6.6</v>
       </c>
-      <c r="K81">
+      <c r="N81">
         <v>6.9</v>
-      </c>
-      <c r="L81">
-        <v>6.7</v>
-      </c>
-      <c r="M81">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="N81">
-        <v>2.2999999999999998</v>
       </c>
       <c r="O81">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q81">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="R81">
+        <v>6.7</v>
+      </c>
+      <c r="S81">
+        <f>R81*B81+R81*C81+R81*D81</f>
+        <v>7.2039166525977345</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82">
+        <v>0.1666435211247943</v>
+      </c>
+      <c r="C82">
+        <v>0.93007988885333814</v>
+      </c>
+      <c r="D82">
+        <v>0.55049425699835919</v>
+      </c>
+      <c r="E82">
         <v>507</v>
       </c>
-      <c r="C82">
+      <c r="F82">
         <v>5.7</v>
       </c>
-      <c r="D82">
+      <c r="G82">
         <v>132</v>
       </c>
-      <c r="E82">
+      <c r="H82">
         <v>3</v>
       </c>
-      <c r="F82">
+      <c r="I82">
         <v>462</v>
       </c>
-      <c r="G82">
+      <c r="J82">
         <v>587</v>
       </c>
-      <c r="H82">
+      <c r="K82">
         <v>11</v>
       </c>
-      <c r="I82">
+      <c r="L82">
         <v>4.5</v>
       </c>
-      <c r="J82">
+      <c r="M82">
         <v>7.6</v>
       </c>
-      <c r="K82">
+      <c r="N82">
         <v>9.1999999999999993</v>
       </c>
-      <c r="L82">
+      <c r="O82">
         <v>9.4</v>
       </c>
-      <c r="M82">
+      <c r="P82">
         <v>5.7</v>
       </c>
-      <c r="N82">
+      <c r="Q82">
         <v>7.2</v>
       </c>
-      <c r="O82">
+      <c r="R82">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S82">
+        <f t="shared" si="1"/>
+        <v>13.671906635904882</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83">
+        <v>9.8174983294337825E-2</v>
+      </c>
+      <c r="C83">
+        <v>3.5867211414537303E-2</v>
+      </c>
+      <c r="D83">
+        <v>0.44768090956707862</v>
+      </c>
+      <c r="E83">
         <v>505</v>
       </c>
-      <c r="C83">
+      <c r="F83">
         <v>5.7</v>
       </c>
-      <c r="D83">
+      <c r="G83">
         <v>462</v>
       </c>
-      <c r="E83">
+      <c r="H83">
         <v>3.3</v>
       </c>
-      <c r="F83">
+      <c r="I83">
         <v>462</v>
       </c>
-      <c r="G83">
+      <c r="J83">
         <v>587</v>
       </c>
-      <c r="H83">
+      <c r="K83">
         <v>8</v>
       </c>
-      <c r="I83">
+      <c r="L83">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J83">
+      <c r="M83">
         <v>6.7</v>
       </c>
-      <c r="K83">
+      <c r="N83">
         <v>6.4</v>
       </c>
-      <c r="L83">
+      <c r="O83">
         <v>6</v>
       </c>
-      <c r="M83">
+      <c r="P83">
         <v>4.3</v>
       </c>
-      <c r="N83">
+      <c r="Q83">
         <v>4</v>
       </c>
-      <c r="O83">
+      <c r="R83">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S83">
+        <f t="shared" si="1"/>
+        <v>4.8283017654904166</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84">
+        <v>0.13796468807261153</v>
+      </c>
+      <c r="C84">
+        <v>0.17648627527643757</v>
+      </c>
+      <c r="D84">
+        <v>0.88541957437004926</v>
+      </c>
+      <c r="E84">
         <v>508</v>
       </c>
-      <c r="C84">
+      <c r="F84">
         <v>5.7</v>
       </c>
-      <c r="D84">
+      <c r="G84">
         <v>620</v>
       </c>
-      <c r="E84">
+      <c r="H84">
         <v>3.8</v>
       </c>
-      <c r="F84">
+      <c r="I84">
         <v>462</v>
       </c>
-      <c r="G84">
+      <c r="J84">
         <v>587</v>
       </c>
-      <c r="H84">
+      <c r="K84">
         <v>9</v>
       </c>
-      <c r="I84">
+      <c r="L84">
         <v>3.8</v>
       </c>
-      <c r="J84">
+      <c r="M84">
         <v>5.6</v>
       </c>
-      <c r="K84">
+      <c r="N84">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L84">
+      <c r="O84">
         <v>4.5</v>
       </c>
-      <c r="M84">
+      <c r="P84">
         <v>3.3</v>
       </c>
-      <c r="N84">
+      <c r="Q84">
         <v>2.2999999999999998</v>
       </c>
-      <c r="O84">
+      <c r="R84">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S84">
+        <f t="shared" si="1"/>
+        <v>9.9589254630685176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85">
+        <v>0.44203670524695626</v>
+      </c>
+      <c r="C85">
+        <v>0.93945115753079755</v>
+      </c>
+      <c r="D85">
+        <v>3.3077482409414882E-3</v>
+      </c>
+      <c r="E85">
         <v>508</v>
       </c>
-      <c r="C85">
+      <c r="F85">
         <v>5.6</v>
       </c>
-      <c r="D85">
+      <c r="G85">
         <v>597</v>
       </c>
-      <c r="E85">
+      <c r="H85">
         <v>3.4</v>
       </c>
-      <c r="F85">
+      <c r="I85">
         <v>462</v>
       </c>
-      <c r="G85">
+      <c r="J85">
         <v>587</v>
       </c>
-      <c r="H85">
+      <c r="K85">
         <v>8</v>
       </c>
-      <c r="I85">
+      <c r="L85">
         <v>4.4000000000000004</v>
       </c>
-      <c r="J85">
+      <c r="M85">
         <v>6.1</v>
       </c>
-      <c r="K85">
+      <c r="N85">
         <v>5.7</v>
       </c>
-      <c r="L85">
+      <c r="O85">
         <v>5.2</v>
       </c>
-      <c r="M85">
+      <c r="P85">
         <v>3.8</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
         <v>2.9</v>
       </c>
-      <c r="O85">
+      <c r="R85">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S85">
+        <f t="shared" si="1"/>
+        <v>11.216844449251431</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86">
+        <v>0.88548954092353205</v>
+      </c>
+      <c r="C86">
+        <v>0.98213991360900632</v>
+      </c>
+      <c r="D86">
+        <v>0.18814837748485402</v>
+      </c>
+      <c r="E86">
         <v>508</v>
       </c>
-      <c r="C86">
+      <c r="F86">
         <v>5.6</v>
       </c>
-      <c r="D86">
+      <c r="G86">
         <v>170</v>
       </c>
-      <c r="E86">
+      <c r="H86">
         <v>2.5</v>
       </c>
-      <c r="F86">
+      <c r="I86">
         <v>462</v>
       </c>
-      <c r="G86">
+      <c r="J86">
         <v>587</v>
       </c>
-      <c r="H86">
+      <c r="K86">
         <v>12</v>
       </c>
-      <c r="I86">
+      <c r="L86">
         <v>3.5</v>
       </c>
-      <c r="J86">
+      <c r="M86">
         <v>8.1</v>
       </c>
-      <c r="K86">
+      <c r="N86">
         <v>9.3000000000000007</v>
       </c>
-      <c r="L86">
+      <c r="O86">
         <v>9.4</v>
       </c>
-      <c r="M86">
+      <c r="P86">
         <v>6</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
         <v>7.1</v>
       </c>
-      <c r="O86">
+      <c r="R86">
         <v>8.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S86">
+        <f t="shared" si="1"/>
+        <v>16.651800439340878</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87">
+        <v>0.7454981570524879</v>
+      </c>
+      <c r="C87">
+        <v>0.99597815555433999</v>
+      </c>
+      <c r="D87">
+        <v>6.4619816307650901E-2</v>
+      </c>
+      <c r="E87">
         <v>324</v>
       </c>
-      <c r="C87">
+      <c r="F87">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D87">
+      <c r="G87">
         <v>256</v>
       </c>
-      <c r="E87">
+      <c r="H87">
         <v>7.1</v>
       </c>
-      <c r="F87">
+      <c r="I87">
         <v>452</v>
       </c>
-      <c r="G87">
+      <c r="J87">
         <v>542</v>
       </c>
-      <c r="H87">
+      <c r="K87">
         <v>14</v>
       </c>
-      <c r="I87">
+      <c r="L87">
         <v>8.4</v>
       </c>
-      <c r="J87">
+      <c r="M87">
         <v>14.3</v>
       </c>
-      <c r="K87">
+      <c r="N87">
         <v>12.7</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>12.5</v>
       </c>
-      <c r="M87">
+      <c r="P87">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N87">
+      <c r="Q87">
         <v>8.9</v>
       </c>
-      <c r="O87">
+      <c r="R87">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S87">
+        <f t="shared" si="1"/>
+        <v>39.553505223227084</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88">
+        <v>0.60800650694765179</v>
+      </c>
+      <c r="C88">
+        <v>0.43900801294821779</v>
+      </c>
+      <c r="D88">
+        <v>0.80060872527075932</v>
+      </c>
+      <c r="E88">
         <v>324</v>
       </c>
-      <c r="C88">
+      <c r="F88">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D88">
+      <c r="G88">
         <v>395</v>
       </c>
-      <c r="E88">
+      <c r="H88">
         <v>6.9</v>
       </c>
-      <c r="F88">
+      <c r="I88">
         <v>452</v>
       </c>
-      <c r="G88">
+      <c r="J88">
         <v>542</v>
       </c>
-      <c r="H88">
+      <c r="K88">
         <v>13</v>
       </c>
-      <c r="I88">
+      <c r="L88">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J88">
+      <c r="M88">
         <v>14.1</v>
       </c>
-      <c r="K88">
+      <c r="N88">
         <v>11.7</v>
       </c>
-      <c r="L88">
+      <c r="O88">
         <v>10.6</v>
       </c>
-      <c r="M88">
+      <c r="P88">
         <v>7.9</v>
       </c>
-      <c r="N88">
+      <c r="Q88">
         <v>5</v>
       </c>
-      <c r="O88">
+      <c r="R88">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S88">
+        <f t="shared" si="1"/>
+        <v>40.093424420115852</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89">
+        <v>0.51240008861332376</v>
+      </c>
+      <c r="C89">
+        <v>0.31063081257481251</v>
+      </c>
+      <c r="D89">
+        <v>0.3631502241649508</v>
+      </c>
+      <c r="E89">
         <v>324</v>
       </c>
-      <c r="C89">
+      <c r="F89">
         <v>9.9</v>
       </c>
-      <c r="D89">
+      <c r="G89">
         <v>433</v>
       </c>
-      <c r="E89">
+      <c r="H89">
         <v>7.3</v>
       </c>
-      <c r="F89">
+      <c r="I89">
         <v>452</v>
       </c>
-      <c r="G89">
+      <c r="J89">
         <v>542</v>
       </c>
-      <c r="H89">
+      <c r="K89">
         <v>12</v>
       </c>
-      <c r="I89">
+      <c r="L89">
         <v>8.1</v>
       </c>
-      <c r="J89">
+      <c r="M89">
         <v>13.5</v>
       </c>
-      <c r="K89">
+      <c r="N89">
         <v>10.8</v>
       </c>
-      <c r="L89">
+      <c r="O89">
         <v>9.6</v>
       </c>
-      <c r="M89">
+      <c r="P89">
         <v>7.3</v>
       </c>
-      <c r="N89">
+      <c r="Q89">
         <v>3.6</v>
       </c>
-      <c r="O89">
+      <c r="R89">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S89">
+        <f t="shared" si="1"/>
+        <v>26.214602870303224</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90">
+        <v>0.80030630238342115</v>
+      </c>
+      <c r="C90">
+        <v>0.61138387746594147</v>
+      </c>
+      <c r="D90">
+        <v>0.95757031867591813</v>
+      </c>
+      <c r="E90">
         <v>324</v>
       </c>
-      <c r="C90">
+      <c r="F90">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D90">
+      <c r="G90">
         <v>467</v>
       </c>
-      <c r="E90">
+      <c r="H90">
         <v>7</v>
       </c>
-      <c r="F90">
+      <c r="I90">
         <v>452</v>
       </c>
-      <c r="G90">
+      <c r="J90">
         <v>542</v>
       </c>
-      <c r="H90">
+      <c r="K90">
         <v>12</v>
       </c>
-      <c r="I90">
+      <c r="L90">
         <v>8.4</v>
       </c>
-      <c r="J90">
+      <c r="M90">
         <v>13.6</v>
       </c>
-      <c r="K90">
+      <c r="N90">
         <v>11</v>
       </c>
-      <c r="L90">
+      <c r="O90">
         <v>9.6999999999999993</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>7.5</v>
       </c>
-      <c r="N90">
+      <c r="Q90">
         <v>3.1</v>
       </c>
-      <c r="O90">
+      <c r="R90">
         <v>21.7</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S90">
+        <f t="shared" si="1"/>
+        <v>51.412952817998587</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91">
+        <v>0.60069435161276796</v>
+      </c>
+      <c r="C91">
+        <v>0.52169202109339885</v>
+      </c>
+      <c r="D91">
+        <v>0.98664035737513744</v>
+      </c>
+      <c r="E91">
         <v>324</v>
       </c>
-      <c r="C91">
+      <c r="F91">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D91">
+      <c r="G91">
         <v>489</v>
       </c>
-      <c r="E91">
+      <c r="H91">
         <v>7</v>
       </c>
-      <c r="F91">
+      <c r="I91">
         <v>452</v>
       </c>
-      <c r="G91">
+      <c r="J91">
         <v>542</v>
       </c>
-      <c r="H91">
+      <c r="K91">
         <v>12</v>
       </c>
-      <c r="I91">
+      <c r="L91">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J91">
+      <c r="M91">
         <v>13.9</v>
       </c>
-      <c r="K91">
+      <c r="N91">
         <v>11.3</v>
       </c>
-      <c r="L91">
+      <c r="O91">
         <v>10</v>
       </c>
-      <c r="M91">
+      <c r="P91">
         <v>7.7</v>
       </c>
-      <c r="N91">
+      <c r="Q91">
         <v>2.8</v>
       </c>
-      <c r="O91">
+      <c r="R91">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S91">
+        <f t="shared" si="1"/>
+        <v>46.187685388780558</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92">
+        <v>9.5987297135079808E-2</v>
+      </c>
+      <c r="C92">
+        <v>2.065487481230921E-3</v>
+      </c>
+      <c r="D92">
+        <v>0.18356726815240165</v>
+      </c>
+      <c r="E92">
         <v>324</v>
       </c>
-      <c r="C92">
+      <c r="F92">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D92">
+      <c r="G92">
         <v>500</v>
       </c>
-      <c r="E92">
+      <c r="H92">
         <v>7</v>
       </c>
-      <c r="F92">
+      <c r="I92">
         <v>452</v>
       </c>
-      <c r="G92">
+      <c r="J92">
         <v>542</v>
       </c>
-      <c r="H92">
+      <c r="K92">
         <v>12</v>
       </c>
-      <c r="I92">
+      <c r="L92">
         <v>8.6999999999999993</v>
       </c>
-      <c r="J92">
+      <c r="M92">
         <v>13.8</v>
       </c>
-      <c r="K92">
+      <c r="N92">
         <v>11.3</v>
       </c>
-      <c r="L92">
+      <c r="O92">
         <v>10</v>
       </c>
-      <c r="M92">
+      <c r="P92">
         <v>7.7</v>
       </c>
-      <c r="N92">
+      <c r="Q92">
         <v>2.5</v>
       </c>
-      <c r="O92">
+      <c r="R92">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="S92">
+        <f t="shared" si="1"/>
+        <v>6.1674791556348003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93">
+        <v>0.74639791600286087</v>
+      </c>
+      <c r="C93">
+        <v>4.5677882177107887E-2</v>
+      </c>
+      <c r="D93">
+        <v>0.70488880342250204</v>
+      </c>
+      <c r="E93">
         <v>324</v>
       </c>
-      <c r="C93">
+      <c r="F93">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D93">
+      <c r="G93">
         <v>528</v>
       </c>
-      <c r="E93">
+      <c r="H93">
         <v>7.1</v>
       </c>
-      <c r="F93">
+      <c r="I93">
         <v>452</v>
       </c>
-      <c r="G93">
+      <c r="J93">
         <v>542</v>
       </c>
-      <c r="H93">
+      <c r="K93">
         <v>11</v>
       </c>
-      <c r="I93">
+      <c r="L93">
         <v>8.1</v>
       </c>
-      <c r="J93">
+      <c r="M93">
         <v>13.1</v>
       </c>
-      <c r="K93">
+      <c r="N93">
         <v>10.4</v>
       </c>
-      <c r="L93">
+      <c r="O93">
         <v>9.1</v>
       </c>
-      <c r="M93">
+      <c r="P93">
         <v>7.1</v>
       </c>
-      <c r="N93">
+      <c r="Q93">
         <v>1.5</v>
       </c>
-      <c r="O93">
+      <c r="R93">
         <v>21.7</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="1"/>
+        <v>32.484131854773615</v>
       </c>
     </row>
   </sheetData>
